--- a/data/hotels_by_city/Houston/Houston_shard_327.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_327.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d268145-Reviews-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-Memorial-Park-Area.h911251.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1396 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r546900455-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>268145</t>
+  </si>
+  <si>
+    <t>546900455</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Love this place</t>
+  </si>
+  <si>
+    <t>Great beds, place is located in a good part of the city. I enjoy the breakfast. Overall great value. I would love to see how it looks once the lobby is completed. Room was quite even though the location is busy. Also whenever I park after hours security is around keeping track of all the cars.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r540968046-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540968046</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Very Good hotel for price</t>
+  </si>
+  <si>
+    <t>room was CLEAN! :)  (11/9/2017-11/13/2017)lots of choices for breakfast (pancakes, pre-made omelettes, assortment of breads, muffins, cereal, bananas and apples, plus more!) and hot, good coffee.  There is construction going on - but it is off to the side and did not disturb me.  Hot tub was a sweet bonus!   both pool area and fitness area are very clean.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r536611741-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536611741</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Very bad</t>
+  </si>
+  <si>
+    <t>The place is under development, with no warning or apology from management. The wifi barely works, there is no restaurant right now, no room service, one elevator not working, major road noise from Katy freeway and $200 per night, non refundable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>The place is under development, with no warning or apology from management. The wifi barely works, there is no restaurant right now, no room service, one elevator not working, major road noise from Katy freeway and $200 per night, non refundable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r531545229-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531545229</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most horrendous visit in a hotel. </t>
+  </si>
+  <si>
+    <t>I visited a friend that was staying in this hotel. Arrived and noticed the hotel itself appeared cheap. It was not at all updated. The rooms are sparse and not furnished the best. The shower had mold growing. This hotel does have a pool that I did not visit. 
+Myself and another person was stuck in their elevator for over 45". Of course during this time we did note there was no certificate showing a current inspection. The other person in the elevator had been there previously and noted that same elevator had been broken down days ago. Whatever occurred, was a huge lurching jump sensation. The elevator had stopped mid floor. A service person arrived from a company. After his arrival, the door was opened. The man stuck in the elevator was tall and could jump down. I am short. Of course I was in a skirt and no lady like way to get down and was lifted to the ground. It was not repaired days later when I visited. 
+I understand that several calls were made to the manager and none returned. I heard one say that there were no notes in those involved stays on the computer. Really? 
+The hotel itself was noisy. Laundry machines are down the hall. People seemed to be partying. I know some that had been displaced from the hurricane were present. There was Disaster Relief personnel staying at this hotel. 
+There are...I visited a friend that was staying in this hotel. Arrived and noticed the hotel itself appeared cheap. It was not at all updated. The rooms are sparse and not furnished the best. The shower had mold growing. This hotel does have a pool that I did not visit. Myself and another person was stuck in their elevator for over 45". Of course during this time we did note there was no certificate showing a current inspection. The other person in the elevator had been there previously and noted that same elevator had been broken down days ago. Whatever occurred, was a huge lurching jump sensation. The elevator had stopped mid floor. A service person arrived from a company. After his arrival, the door was opened. The man stuck in the elevator was tall and could jump down. I am short. Of course I was in a skirt and no lady like way to get down and was lifted to the ground. It was not repaired days later when I visited. I understand that several calls were made to the manager and none returned. I heard one say that there were no notes in those involved stays on the computer. Really? The hotel itself was noisy. Laundry machines are down the hall. People seemed to be partying. I know some that had been displaced from the hurricane were present. There was Disaster Relief personnel staying at this hotel. There are nearby restaurants. However, when you travel across the street under the other highways you will see homeless people's items in this area.I believe the Crown Plaza down the road is owned by the same company. My recommendation is to try a different hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded November 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2017</t>
+  </si>
+  <si>
+    <t>I visited a friend that was staying in this hotel. Arrived and noticed the hotel itself appeared cheap. It was not at all updated. The rooms are sparse and not furnished the best. The shower had mold growing. This hotel does have a pool that I did not visit. 
+Myself and another person was stuck in their elevator for over 45". Of course during this time we did note there was no certificate showing a current inspection. The other person in the elevator had been there previously and noted that same elevator had been broken down days ago. Whatever occurred, was a huge lurching jump sensation. The elevator had stopped mid floor. A service person arrived from a company. After his arrival, the door was opened. The man stuck in the elevator was tall and could jump down. I am short. Of course I was in a skirt and no lady like way to get down and was lifted to the ground. It was not repaired days later when I visited. 
+I understand that several calls were made to the manager and none returned. I heard one say that there were no notes in those involved stays on the computer. Really? 
+The hotel itself was noisy. Laundry machines are down the hall. People seemed to be partying. I know some that had been displaced from the hurricane were present. There was Disaster Relief personnel staying at this hotel. 
+There are...I visited a friend that was staying in this hotel. Arrived and noticed the hotel itself appeared cheap. It was not at all updated. The rooms are sparse and not furnished the best. The shower had mold growing. This hotel does have a pool that I did not visit. Myself and another person was stuck in their elevator for over 45". Of course during this time we did note there was no certificate showing a current inspection. The other person in the elevator had been there previously and noted that same elevator had been broken down days ago. Whatever occurred, was a huge lurching jump sensation. The elevator had stopped mid floor. A service person arrived from a company. After his arrival, the door was opened. The man stuck in the elevator was tall and could jump down. I am short. Of course I was in a skirt and no lady like way to get down and was lifted to the ground. It was not repaired days later when I visited. I understand that several calls were made to the manager and none returned. I heard one say that there were no notes in those involved stays on the computer. Really? The hotel itself was noisy. Laundry machines are down the hall. People seemed to be partying. I know some that had been displaced from the hurricane were present. There was Disaster Relief personnel staying at this hotel. There are nearby restaurants. However, when you travel across the street under the other highways you will see homeless people's items in this area.I believe the Crown Plaza down the road is owned by the same company. My recommendation is to try a different hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r522647127-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522647127</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>A warm space when we really needed it</t>
+  </si>
+  <si>
+    <t>My husband and I were evacuees in Houston after Hurricane Harvey hit and ended up staying here almost a week with our 2 cats. The staff were going through the same pressure and stress as the rest of the city, but still managed to make us feel safe and welcome while we looked for a new home.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r522401947-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522401947</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Was in Houston for hurricane Harvey relief and needed a hotel at 10:30 pm. They matched the lowest rate &amp; waived taxes</t>
+  </si>
+  <si>
+    <t>Room was bright, clean, well air conditioned, quiet (even though its on the frontage road of I-10). staff was friendly. Security could see that I couldn't find a parking spot (they were very full) and told me to park in the handicapped spot and let the front desk know. I said I had a lot of expensive gear in my vehicle and he said, don't worry, I'll be here watching all night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r502918383-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502918383</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Nice Big Rooms, comfortable beds</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend to attend a party. The hotel is very nice and well kept. The rooms are spacious, comfortable and very well maintained. The beds were very comfortable. The staff is friendly, efficient and accommodating. Breakfast was pretty good, but the breakfast area is a little small and was very crowded. Parking here is challenging at night. It seems like they have more rooms than parking spaces. The night security man was very helpful in getting us a parking spot for the night. We received a great rate for our weekend stay. We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r499535733-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499535733</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th of July. </t>
+  </si>
+  <si>
+    <t>Stayed here on the 4th of July to go to a festival nearby. The room was amazing, big and clean with a great bathroom and even a fridge and coffee station. Couldn't hear any noise from the roads and even got breakfast in the morning, absolutely perfect :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r474729938-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474729938</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>To close to Freeway</t>
+  </si>
+  <si>
+    <t>The room was very comfortable but you can hear the freeway noise all night.  I was on the top floor and still could hear thr freeway.  I asked to be moved to the other side of the hotel and was told they where all bookede and I could not move.  Did not sleep well the whole trip due to the noiseMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>The room was very comfortable but you can hear the freeway noise all night.  I was on the top floor and still could hear thr freeway.  I asked to be moved to the other side of the hotel and was told they where all bookede and I could not move.  Did not sleep well the whole trip due to the noiseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r463093446-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463093446</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Nice &amp;Friendly</t>
+  </si>
+  <si>
+    <t>Griselda had a great attitude and customer service skills.She was very friendly. Ross was friendly and hard worker. Dax the manger was  personable and manages a great team. Hotel was clean , free parking , washer&amp; dryer, free breakfast .The hotel has indoor pool and a business center. Nice Stay</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r438665315-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438665315</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Great experience here!  Great indoor pool with hot tub!  Pet friendly for a fee. Fresh coffee and cookies available in the lobby in the evening. Updating underway on some floors, but our room on 7th floor was great! Nice, clean Jack In The Box next door for a quick meal.  Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r436004730-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436004730</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Stayed here on a class trip</t>
+  </si>
+  <si>
+    <t>I chaperoned my son's school trip and the class stayed at this hotel.  The hotel was under renovation and I got one of the renovated rooms, which was nice AND big.  The lobby and breakfast area were small but adequate.  The staff was friendly.  The only real complaint I have is the Houston traffic!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r395658240-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395658240</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>To attend family function</t>
+  </si>
+  <si>
+    <t>Pros: room(s) were very clean. Plenty of towels - ac worked well - nice comfy bed and linens. Well stocked breakfast - more than I expected.  And close proximity to where I needed to be. 
+Cons:  I arrived 3 hours before I had to leave for funeral home and wanted to rest and relax for a couple of hours. I was placed on 5th floor. I got all my things arranged and relaxed with a book. All of a sudden the room was shaking - Jack-hammers going and I literally thought my ceiling was coming down. I called front desk and was told 6th floor was being remodeled and would be quiet after 5pm. My question is, the hotel did not appear full so why put me on the floor directly under the construction. I decided to take a shower and realized that the carpet was very very wet. I again called front desk. She offered to move me. So I got all my things back in my suitcase and called for keys to new room. She came and put me on 4th floor.  She never offered to assist me moving my things. Her comment was "the 4th floor should be quieter."  Why did they not put me on a lower floor to begin with?   
+I feel better customer service training and common sense could have made my stay excellent. Instead, I was inconvenienced and left feeling that my experience...Pros: room(s) were very clean. Plenty of towels - ac worked well - nice comfy bed and linens. Well stocked breakfast - more than I expected.  And close proximity to where I needed to be. Cons:  I arrived 3 hours before I had to leave for funeral home and wanted to rest and relax for a couple of hours. I was placed on 5th floor. I got all my things arranged and relaxed with a book. All of a sudden the room was shaking - Jack-hammers going and I literally thought my ceiling was coming down. I called front desk and was told 6th floor was being remodeled and would be quiet after 5pm. My question is, the hotel did not appear full so why put me on the floor directly under the construction. I decided to take a shower and realized that the carpet was very very wet. I again called front desk. She offered to move me. So I got all my things back in my suitcase and called for keys to new room. She came and put me on 4th floor.  She never offered to assist me moving my things. Her comment was "the 4th floor should be quieter."  Why did they not put me on a lower floor to begin with?   I feel better customer service training and common sense could have made my stay excellent. Instead, I was inconvenienced and left feeling that my experience really didn't matter.  A simple "I'm sorry for your inconvenience" would have gone a long way. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Pros: room(s) were very clean. Plenty of towels - ac worked well - nice comfy bed and linens. Well stocked breakfast - more than I expected.  And close proximity to where I needed to be. 
+Cons:  I arrived 3 hours before I had to leave for funeral home and wanted to rest and relax for a couple of hours. I was placed on 5th floor. I got all my things arranged and relaxed with a book. All of a sudden the room was shaking - Jack-hammers going and I literally thought my ceiling was coming down. I called front desk and was told 6th floor was being remodeled and would be quiet after 5pm. My question is, the hotel did not appear full so why put me on the floor directly under the construction. I decided to take a shower and realized that the carpet was very very wet. I again called front desk. She offered to move me. So I got all my things back in my suitcase and called for keys to new room. She came and put me on 4th floor.  She never offered to assist me moving my things. Her comment was "the 4th floor should be quieter."  Why did they not put me on a lower floor to begin with?   
+I feel better customer service training and common sense could have made my stay excellent. Instead, I was inconvenienced and left feeling that my experience...Pros: room(s) were very clean. Plenty of towels - ac worked well - nice comfy bed and linens. Well stocked breakfast - more than I expected.  And close proximity to where I needed to be. Cons:  I arrived 3 hours before I had to leave for funeral home and wanted to rest and relax for a couple of hours. I was placed on 5th floor. I got all my things arranged and relaxed with a book. All of a sudden the room was shaking - Jack-hammers going and I literally thought my ceiling was coming down. I called front desk and was told 6th floor was being remodeled and would be quiet after 5pm. My question is, the hotel did not appear full so why put me on the floor directly under the construction. I decided to take a shower and realized that the carpet was very very wet. I again called front desk. She offered to move me. So I got all my things back in my suitcase and called for keys to new room. She came and put me on 4th floor.  She never offered to assist me moving my things. Her comment was "the 4th floor should be quieter."  Why did they not put me on a lower floor to begin with?   I feel better customer service training and common sense could have made my stay excellent. Instead, I was inconvenienced and left feeling that my experience really didn't matter.  A simple "I'm sorry for your inconvenience" would have gone a long way. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r381505950-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381505950</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was spacious, comfortable, clean.  The hotel is located on the frontage road of I 10, even with good windows and insulation you still hear the cars. I enjoyed the option of the firm and soft pillows. Everything you want when traveling. The breakfast was standard fare it was clean and well stocked.  Check out was smooth and easy.  I will be back. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r355445867-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355445867</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Bad Experience with Staff Member!</t>
+  </si>
+  <si>
+    <t>My mom is legally disabled.  The lady at the front desk would not accept the letter from her Doctor regarding her  Support Animal therefore we had to leave hotel and went to another. We have contacted the hotel multiple times for a response however, they will not respond. We have never had this problem before! =-(#HOLIDAYINN#IHGHOTELSMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2016</t>
+  </si>
+  <si>
+    <t>My mom is legally disabled.  The lady at the front desk would not accept the letter from her Doctor regarding her  Support Animal therefore we had to leave hotel and went to another. We have contacted the hotel multiple times for a response however, they will not respond. We have never had this problem before! =-(#HOLIDAYINN#IHGHOTELSMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r325561896-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325561896</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Musty</t>
+  </si>
+  <si>
+    <t>My father stayed here when visiting me from out of town. My sister and children also had another room while visiting on the same weekend from out of town. I was in and out of both rooms over several days. My father's first room was very musty, so he switched rooms. Second room was still musty. If the a/c was kept on 66 degrees (even though it was 59 degrees outside) it was ever-so-slightly-less musty. Sister's room was also extremely musty - the smell comes straight out of the a/c units and is pretty awful. Same thing with the a/c. It seemed clean otherwise and they seemed to think there were good breakfast options, along with unlimited supply of decent coffee available in the lobby. There is a computer and a printer in the lobby if you need to print airline tickets. The kids enjoyed the indoor pool briefly as well. But the musty smell nearly made them look for a room in a different hotel and woke them in the night because it was so strong. If it had been longer than a few nights I'm sure they wouldn't have stayed, and they won't stay there again. Just to recap: that was THREE different rooms on the sixth floor with a horrible musty odor. The hotel is on the side of the highway, so there is some traffic noise as well, but that was to be expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded November 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2015</t>
+  </si>
+  <si>
+    <t>My father stayed here when visiting me from out of town. My sister and children also had another room while visiting on the same weekend from out of town. I was in and out of both rooms over several days. My father's first room was very musty, so he switched rooms. Second room was still musty. If the a/c was kept on 66 degrees (even though it was 59 degrees outside) it was ever-so-slightly-less musty. Sister's room was also extremely musty - the smell comes straight out of the a/c units and is pretty awful. Same thing with the a/c. It seemed clean otherwise and they seemed to think there were good breakfast options, along with unlimited supply of decent coffee available in the lobby. There is a computer and a printer in the lobby if you need to print airline tickets. The kids enjoyed the indoor pool briefly as well. But the musty smell nearly made them look for a room in a different hotel and woke them in the night because it was so strong. If it had been longer than a few nights I'm sure they wouldn't have stayed, and they won't stay there again. Just to recap: that was THREE different rooms on the sixth floor with a horrible musty odor. The hotel is on the side of the highway, so there is some traffic noise as well, but that was to be expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r316880432-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316880432</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Crazy Highway Entrance, but Good Stay</t>
+  </si>
+  <si>
+    <t>The moment you get off the highway exit to this place, if you miss it's almost immediate turn into its parking lot, then you have to get right back on the highway and try again. The hotel itself is around a pretty nice area. It's around the corner from a movie theatre, Dave &amp; Buster's, and shopping center and a large fitness. The parking lot it adjacent to a Jack In the Box as well. They are pet friendly and that was a huge plus. The rooms are nice and the pool and jacuzzi was very inviting (we did not have a chance to get in it though, lol) I hate its location, but the stay was very nice for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>The moment you get off the highway exit to this place, if you miss it's almost immediate turn into its parking lot, then you have to get right back on the highway and try again. The hotel itself is around a pretty nice area. It's around the corner from a movie theatre, Dave &amp; Buster's, and shopping center and a large fitness. The parking lot it adjacent to a Jack In the Box as well. They are pet friendly and that was a huge plus. The rooms are nice and the pool and jacuzzi was very inviting (we did not have a chance to get in it though, lol) I hate its location, but the stay was very nice for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r315601459-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315601459</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Clean but not great area</t>
+  </si>
+  <si>
+    <t>Nice, clean rooms and nice staff... however, the area was a bit sketchy.  We were a little leary to leave our vehicle unattended.  Thankfully, no trouble occurred.  Other than that, it was your typical Holiday Inn.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r277924388-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277924388</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>A typical a Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>This hotel was very similar to others I have seen. The rooms were a little tired, but clean and in working order. Bathroom was clean and everything worked.No restaurant, but there were plenty nearby. Plenty of parking on property.Staff was friendly and helpful. Exercise facility was small with three machines, one of which was broken.Breakfast served was sausage and eggs with make-your-own waffles. Seating was limited.Finding the hotel with a GPS can be a challenge since the roads seem to have recently changes.The hotel is very near the highway so a certain amount of road noise is inevitable.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r275602117-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275602117</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We were in Houston looking for a place to stay because we had not made a reservation.  We were greeted by a very friendly staff. Got a king size bed that was very comfortable.  No problems with the wifi and had a nice hot breakfast before we left.  We will definitely stay there again</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r274853410-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274853410</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>The hotel was very well maintained.  I stayed in a room with a king bed.  It had a refrigerator and microwave which was nice. The view was very good. The breakfast was excellent. Staff was friendly and very knowledgeable about the area. I was never able to log into wi-fi which is the reason that it did not receive excellent.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r251718482-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251718482</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Stayed for weekend for family event; friendly staff &amp; clean rooms</t>
+  </si>
+  <si>
+    <t>4 rooms were rented Friday through Monday for family event.  Chose hotel due to proximity of family members home and also for pet policy and pricing.  We were pleased with the room.  It was clean and well appointed.  Staff were exceptionally friendly and helpful.  Appreciate the pet friendly policy.  I am giving a 4 star rating because the property is in good condition, everything was clean, we had a decent breakfast each morning, and the value was excellent (weekend rates). It is on the freeway; bring earplugs if you need quiet.  (Can't have this kind of convenience with no noise!)
+HOWEVER: I was very unhappy to find the reservation service for the hotel had not given us accurate information (referring to the 800 # listed on the website...also this is the number i was transferred to when i called the hotel front desk in the late evening to make the reservation).  Traveling with advanced age parents, I wanted adjoining rooms and also asked for rooms on the first or second floor.  I was told that they would note that on the reservation (inferring we would be given consideration for this option when the rooms were assigned by the hotel).  Point in fact:  The hotel does not have any adjoining rooms and there are no rooms on the first floor (meeting rooms/pool/breakfast area, etc); the second floor are suites only.
+The desk staff did their best to accommodate our needs and...4 rooms were rented Friday through Monday for family event.  Chose hotel due to proximity of family members home and also for pet policy and pricing.  We were pleased with the room.  It was clean and well appointed.  Staff were exceptionally friendly and helpful.  Appreciate the pet friendly policy.  I am giving a 4 star rating because the property is in good condition, everything was clean, we had a decent breakfast each morning, and the value was excellent (weekend rates). It is on the freeway; bring earplugs if you need quiet.  (Can't have this kind of convenience with no noise!)HOWEVER: I was very unhappy to find the reservation service for the hotel had not given us accurate information (referring to the 800 # listed on the website...also this is the number i was transferred to when i called the hotel front desk in the late evening to make the reservation).  Traveling with advanced age parents, I wanted adjoining rooms and also asked for rooms on the first or second floor.  I was told that they would note that on the reservation (inferring we would be given consideration for this option when the rooms were assigned by the hotel).  Point in fact:  The hotel does not have any adjoining rooms and there are no rooms on the first floor (meeting rooms/pool/breakfast area, etc); the second floor are suites only.The desk staff did their best to accommodate our needs and were most apologetic.  But this oversight (on the part of Holiday Inns) really is unfair to travelers seeking rooms for specific needs. Lastly, a suggestion:  We GREATLY appreciate hotels being pet friendly and do everything we can to assure our pets are not a nuisance. We always bring a supply of bags to pick up droppings and suggest the hotel install a 'station' with a sign and baggies for guests who are not considerate and do not pick up after their pets (I would call them PIGS, but that would be far too much of a compliment.  Perhaps inconsiderate, filthy, boorish slobs would be more of a fit).MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>4 rooms were rented Friday through Monday for family event.  Chose hotel due to proximity of family members home and also for pet policy and pricing.  We were pleased with the room.  It was clean and well appointed.  Staff were exceptionally friendly and helpful.  Appreciate the pet friendly policy.  I am giving a 4 star rating because the property is in good condition, everything was clean, we had a decent breakfast each morning, and the value was excellent (weekend rates). It is on the freeway; bring earplugs if you need quiet.  (Can't have this kind of convenience with no noise!)
+HOWEVER: I was very unhappy to find the reservation service for the hotel had not given us accurate information (referring to the 800 # listed on the website...also this is the number i was transferred to when i called the hotel front desk in the late evening to make the reservation).  Traveling with advanced age parents, I wanted adjoining rooms and also asked for rooms on the first or second floor.  I was told that they would note that on the reservation (inferring we would be given consideration for this option when the rooms were assigned by the hotel).  Point in fact:  The hotel does not have any adjoining rooms and there are no rooms on the first floor (meeting rooms/pool/breakfast area, etc); the second floor are suites only.
+The desk staff did their best to accommodate our needs and...4 rooms were rented Friday through Monday for family event.  Chose hotel due to proximity of family members home and also for pet policy and pricing.  We were pleased with the room.  It was clean and well appointed.  Staff were exceptionally friendly and helpful.  Appreciate the pet friendly policy.  I am giving a 4 star rating because the property is in good condition, everything was clean, we had a decent breakfast each morning, and the value was excellent (weekend rates). It is on the freeway; bring earplugs if you need quiet.  (Can't have this kind of convenience with no noise!)HOWEVER: I was very unhappy to find the reservation service for the hotel had not given us accurate information (referring to the 800 # listed on the website...also this is the number i was transferred to when i called the hotel front desk in the late evening to make the reservation).  Traveling with advanced age parents, I wanted adjoining rooms and also asked for rooms on the first or second floor.  I was told that they would note that on the reservation (inferring we would be given consideration for this option when the rooms were assigned by the hotel).  Point in fact:  The hotel does not have any adjoining rooms and there are no rooms on the first floor (meeting rooms/pool/breakfast area, etc); the second floor are suites only.The desk staff did their best to accommodate our needs and were most apologetic.  But this oversight (on the part of Holiday Inns) really is unfair to travelers seeking rooms for specific needs. Lastly, a suggestion:  We GREATLY appreciate hotels being pet friendly and do everything we can to assure our pets are not a nuisance. We always bring a supply of bags to pick up droppings and suggest the hotel install a 'station' with a sign and baggies for guests who are not considerate and do not pick up after their pets (I would call them PIGS, but that would be far too much of a compliment.  Perhaps inconsiderate, filthy, boorish slobs would be more of a fit).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r242933871-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242933871</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Good Location, Great Service</t>
+  </si>
+  <si>
+    <t>Location was convenient to my client sites I was visiting.  Front desk was welcoming.  Room was clean typical Holiday Inn Express.  I had a room near the elevator that was a little louder but then I moved away from the elevator and it was quiet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r239999473-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239999473</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Average  Nothing great nothing bad</t>
+  </si>
+  <si>
+    <t>All around average experience.  Decent common areas.  my room was average but clean.  The wireless internet worked as expected.  It is convenient to the highway.  The breakfast first day was subpar.  my eggs had a hard spot which I hoped was not because it was from a day or two earlier as I was eating at 6:30am which is when they opened.  Breakfast the next day was better.  Workout room small but there is free access to a local LA Fitness if you are so inclined.  No close restaurants but I walked next door to the crown plaza and had a good meal and it has a decent bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>All around average experience.  Decent common areas.  my room was average but clean.  The wireless internet worked as expected.  It is convenient to the highway.  The breakfast first day was subpar.  my eggs had a hard spot which I hoped was not because it was from a day or two earlier as I was eating at 6:30am which is when they opened.  Breakfast the next day was better.  Workout room small but there is free access to a local LA Fitness if you are so inclined.  No close restaurants but I walked next door to the crown plaza and had a good meal and it has a decent bar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r236597030-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236597030</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Arrived early (before check in) my room was ready.  PROMPLY helped at front desk.  Hotel is great very clean, very well maintained and very convinently located. Staff is very polite and service oriented.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r234279793-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234279793</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Our stay at Holiday Inn in Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved this hotel.  We paid a little more for the suite and it was so nice because it had a family room separate from the bedroom.  The bedroom was really big and the 2 queen size beds were very comfortable.  Pull out bed in family room.  Great for a family of 6.   Great continential breakfast too.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r231454214-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231454214</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Large 2 room suites!!</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here once again. This is the third time we have stayed at this location.It is close to Memorial City Mall &amp; The Galleria. The indoor pool is clean &amp; a nice size. The hot tub is nice too. We enjoyed the free breakfast- pancakes, bacon, scrambled eggs, boiled eggs, biscuits &amp; gravy, warm cinnamon rolls, cereal, muffins, toast, bagels, apples, bananas, juice, chocolate milk &amp; regular milk &amp; yogurt. Coffee 24/7.Nice variety. The suites is extra large having a full size frig, microwave in kitchen area. Table with 4 chairs, recliner, pull out sofa, 2 flat screen tvs,, 2 queen beds, desk, chair &amp; ottoman, closet, large bathroom, &amp; lots of plug ins for phones. The staff was outstanding. Free rollaway, but request them before you arrive. Breakfast ends at  10:30 am. The only thing I can say negative is it could use a fresh coat of paint &amp; touching up a few dings on walls, but nothing major. Suite is located next to the elevator, but is well worth it although you may hear the elevator sometimes. Downstairs was not as cold as the room, but the pool is heated &amp; close to the front desk. Overall we loved it &amp; loved the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here once again. This is the third time we have stayed at this location.It is close to Memorial City Mall &amp; The Galleria. The indoor pool is clean &amp; a nice size. The hot tub is nice too. We enjoyed the free breakfast- pancakes, bacon, scrambled eggs, boiled eggs, biscuits &amp; gravy, warm cinnamon rolls, cereal, muffins, toast, bagels, apples, bananas, juice, chocolate milk &amp; regular milk &amp; yogurt. Coffee 24/7.Nice variety. The suites is extra large having a full size frig, microwave in kitchen area. Table with 4 chairs, recliner, pull out sofa, 2 flat screen tvs,, 2 queen beds, desk, chair &amp; ottoman, closet, large bathroom, &amp; lots of plug ins for phones. The staff was outstanding. Free rollaway, but request them before you arrive. Breakfast ends at  10:30 am. The only thing I can say negative is it could use a fresh coat of paint &amp; touching up a few dings on walls, but nothing major. Suite is located next to the elevator, but is well worth it although you may hear the elevator sometimes. Downstairs was not as cold as the room, but the pool is heated &amp; close to the front desk. Overall we loved it &amp; loved the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r217351639-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217351639</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Dated but clean</t>
+  </si>
+  <si>
+    <t>This hotel had friendly front desk staff, and nice lobby area.  Our room was a bit out dated/aged but clean. Good location close to the freeway.  It was located on the back side of the building, I did not notice freeway noise. Breakfast area was clean and breakfast well maintained.  My granddaughter enjoyed the pancake maker.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>This hotel had friendly front desk staff, and nice lobby area.  Our room was a bit out dated/aged but clean. Good location close to the freeway.  It was located on the back side of the building, I did not notice freeway noise. Breakfast area was clean and breakfast well maintained.  My granddaughter enjoyed the pancake maker.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r207188898-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207188898</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Tough Hotel To Rate</t>
+  </si>
+  <si>
+    <t>This is by far one of the most difficult hotels that I've stayed at to rate.  Reason being that it's got it's fair shares of pro's and con's which is why I gave it an "average" rating.
+Pro's:  Conveniently located off I-10 near 610 junction and across from Edwards Theaters multiplex.  Affordable room rates and very friendly staff.  This is what I liked the most about this place; staff friendliness.  This Holiday Inn location had adequate parking spaces versus other Houston hotels that I've stayed at.  All the electronics were fully functional and great wifi connectivity.    
+Con's:  I stayed on the 5th floor facing I-10 and boy could you hear the traffic.  The noise issue was very apparent anytime a motorcycle or "sport car" would speed on by.  The decor is a bit outdated, but I understand that this is an older Holiday Inn Express.  I think if they updated the carpet and bedding the room would look a lot nicer.  The furniture could also use some updating, but it's not outdated enough to give the room a tacky look.  
+Another item that I'd like to add under the "con's" is that this is the only Houston Holiday Inn location that did not give me a "free gift" for being a rewards member.  Granted the "free gift" at many locations may consist of bottled water, chips and candy, but still.  lol  
+So all in all if you're looking for a...This is by far one of the most difficult hotels that I've stayed at to rate.  Reason being that it's got it's fair shares of pro's and con's which is why I gave it an "average" rating.Pro's:  Conveniently located off I-10 near 610 junction and across from Edwards Theaters multiplex.  Affordable room rates and very friendly staff.  This is what I liked the most about this place; staff friendliness.  This Holiday Inn location had adequate parking spaces versus other Houston hotels that I've stayed at.  All the electronics were fully functional and great wifi connectivity.    Con's:  I stayed on the 5th floor facing I-10 and boy could you hear the traffic.  The noise issue was very apparent anytime a motorcycle or "sport car" would speed on by.  The decor is a bit outdated, but I understand that this is an older Holiday Inn Express.  I think if they updated the carpet and bedding the room would look a lot nicer.  The furniture could also use some updating, but it's not outdated enough to give the room a tacky look.  Another item that I'd like to add under the "con's" is that this is the only Houston Holiday Inn location that did not give me a "free gift" for being a rewards member.  Granted the "free gift" at many locations may consist of bottled water, chips and candy, but still.  lol  So all in all if you're looking for a convenient location to stay at without breaking the bank this is your place.  The staff will make you feel very much at home.  While I did not eat the breakfast I saw many in the lobby helping themselves.  So the free breakfast must be good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>This is by far one of the most difficult hotels that I've stayed at to rate.  Reason being that it's got it's fair shares of pro's and con's which is why I gave it an "average" rating.
+Pro's:  Conveniently located off I-10 near 610 junction and across from Edwards Theaters multiplex.  Affordable room rates and very friendly staff.  This is what I liked the most about this place; staff friendliness.  This Holiday Inn location had adequate parking spaces versus other Houston hotels that I've stayed at.  All the electronics were fully functional and great wifi connectivity.    
+Con's:  I stayed on the 5th floor facing I-10 and boy could you hear the traffic.  The noise issue was very apparent anytime a motorcycle or "sport car" would speed on by.  The decor is a bit outdated, but I understand that this is an older Holiday Inn Express.  I think if they updated the carpet and bedding the room would look a lot nicer.  The furniture could also use some updating, but it's not outdated enough to give the room a tacky look.  
+Another item that I'd like to add under the "con's" is that this is the only Houston Holiday Inn location that did not give me a "free gift" for being a rewards member.  Granted the "free gift" at many locations may consist of bottled water, chips and candy, but still.  lol  
+So all in all if you're looking for a...This is by far one of the most difficult hotels that I've stayed at to rate.  Reason being that it's got it's fair shares of pro's and con's which is why I gave it an "average" rating.Pro's:  Conveniently located off I-10 near 610 junction and across from Edwards Theaters multiplex.  Affordable room rates and very friendly staff.  This is what I liked the most about this place; staff friendliness.  This Holiday Inn location had adequate parking spaces versus other Houston hotels that I've stayed at.  All the electronics were fully functional and great wifi connectivity.    Con's:  I stayed on the 5th floor facing I-10 and boy could you hear the traffic.  The noise issue was very apparent anytime a motorcycle or "sport car" would speed on by.  The decor is a bit outdated, but I understand that this is an older Holiday Inn Express.  I think if they updated the carpet and bedding the room would look a lot nicer.  The furniture could also use some updating, but it's not outdated enough to give the room a tacky look.  Another item that I'd like to add under the "con's" is that this is the only Houston Holiday Inn location that did not give me a "free gift" for being a rewards member.  Granted the "free gift" at many locations may consist of bottled water, chips and candy, but still.  lol  So all in all if you're looking for a convenient location to stay at without breaking the bank this is your place.  The staff will make you feel very much at home.  While I did not eat the breakfast I saw many in the lobby helping themselves.  So the free breakfast must be good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r205628614-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205628614</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>Ok hotel, with good service</t>
+  </si>
+  <si>
+    <t>Bit out-dated and rough on the edges, but service was good and location was extremely convenient for my travels. Proper gym would be great. All the services were near and convenient. Quite place, even though freeway runs right next to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Bit out-dated and rough on the edges, but service was good and location was extremely convenient for my travels. Proper gym would be great. All the services were near and convenient. Quite place, even though freeway runs right next to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r181379951-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181379951</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Family Getaway Weekend</t>
+  </si>
+  <si>
+    <t>Normally this is a favorite get away hotel for a weekend. It's not the Westin, but it is clean and very family friendly. The staff is also very pleasant.  However,. this past weekend I had to shower in tepid water. I really hated that. When I mentioned it to the front desk they said that the hotel had been having problems with the boiler. I wasn't offered anything to compensate for my inconvenience. Apparently this is an ongoing problem. The beds in my queen suite were less comfortable then the beds in a regular room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded October 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2013</t>
+  </si>
+  <si>
+    <t>Normally this is a favorite get away hotel for a weekend. It's not the Westin, but it is clean and very family friendly. The staff is also very pleasant.  However,. this past weekend I had to shower in tepid water. I really hated that. When I mentioned it to the front desk they said that the hotel had been having problems with the boiler. I wasn't offered anything to compensate for my inconvenience. Apparently this is an ongoing problem. The beds in my queen suite were less comfortable then the beds in a regular room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r181027100-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181027100</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Needs some TLC</t>
+  </si>
+  <si>
+    <t>Good staff, good food, but has maintenance issues. One working elevator, no hot water in sink sometimes, no water at all for a couple of hours one time, a water saving commode that had so little water swirling around the bowl that you had to hand clean it after each use, multiple trips to front desk because the drink labels on the machine were wrong (i.e. you never knew what drink may pop out.) The price went up by $10 each night for 3 nights??? All in all----I would never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Good staff, good food, but has maintenance issues. One working elevator, no hot water in sink sometimes, no water at all for a couple of hours one time, a water saving commode that had so little water swirling around the bowl that you had to hand clean it after each use, multiple trips to front desk because the drink labels on the machine were wrong (i.e. you never knew what drink may pop out.) The price went up by $10 each night for 3 nights??? All in all----I would never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r178373985-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178373985</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t>Stayed for the weekend to celebrate my birthday. The rooms were nice, but the mattress were a little too firm, the shower had little to almost no hot water so the shower wasn't very pleasant and to top it all off we stayed on da 6th floor with only one working elevator. Overall it was convenient to downtown and the nightclub we went to. MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Stayed for the weekend to celebrate my birthday. The rooms were nice, but the mattress were a little too firm, the shower had little to almost no hot water so the shower wasn't very pleasant and to top it all off we stayed on da 6th floor with only one working elevator. Overall it was convenient to downtown and the nightclub we went to. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r166074896-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166074896</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We stayed at Holiday Inn Express on our way to San Antonio on May 11 2013. It was easy to find with close access to I-10. The rooms were clean and the employees were very friendly. They have a decent breakfast. The only down fall would be the lack of dinner places nearby. We don't know our way around Houston and wanted something close with in walking distance. Our only choice was Jack in the Box which is next door. I have nothing against Jack in the Box. But I would have preferred a different restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>edgarcia79, Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded July 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at Holiday Inn Express on our way to San Antonio on May 11 2013. It was easy to find with close access to I-10. The rooms were clean and the employees were very friendly. They have a decent breakfast. The only down fall would be the lack of dinner places nearby. We don't know our way around Houston and wanted something close with in walking distance. Our only choice was Jack in the Box which is next door. I have nothing against Jack in the Box. But I would have preferred a different restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r162910537-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162910537</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Housto-Memorial Park Area</t>
+  </si>
+  <si>
+    <t>I have stayed at this location every time I'm in Houston for business. Shame on me for not writing a review in the past. Every time that I have stayed here, I have experience the most proffesional customer service from the the whole staff. Lovette, Griselda and the Maintenance guy Agustin are wonderful persons and their proffesionalism exceeds expectations. They are great assets for this location. They are the reason I continue to stay at this location. I feel very comfortable when they are there.MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded July 5, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this location every time I'm in Houston for business. Shame on me for not writing a review in the past. Every time that I have stayed here, I have experience the most proffesional customer service from the the whole staff. Lovette, Griselda and the Maintenance guy Agustin are wonderful persons and their proffesionalism exceeds expectations. They are great assets for this location. They are the reason I continue to stay at this location. I feel very comfortable when they are there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r160009718-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160009718</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Fair experience in every way</t>
+  </si>
+  <si>
+    <t>Nothing to get too excited about but it will deliver what's expected. Suites are not quite as spacious as some of the other HIE suites and its location right next to Interstate Highway 10 has is pros and cons. Breakfast is the HIE standard and is managed quite well given the small space it is served up in. It's clean and cleaning staff are friendly and efficient.  A little bit more expensive than what we are used to when 'on the road'. We paid a little over $200 + TAX per night per suite. Bring earplugs if you are a light sleeper.MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded May 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2013</t>
+  </si>
+  <si>
+    <t>Nothing to get too excited about but it will deliver what's expected. Suites are not quite as spacious as some of the other HIE suites and its location right next to Interstate Highway 10 has is pros and cons. Breakfast is the HIE standard and is managed quite well given the small space it is served up in. It's clean and cleaning staff are friendly and efficient.  A little bit more expensive than what we are used to when 'on the road'. We paid a little over $200 + TAX per night per suite. Bring earplugs if you are a light sleeper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r156783467-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156783467</t>
+  </si>
+  <si>
+    <t>04/06/2013</t>
+  </si>
+  <si>
+    <t>good hotel</t>
+  </si>
+  <si>
+    <t>good hotel near all major highways great place to stay nice pool good breakfast enough parking space beds where good big room.i certainly will stay there again when i am in the area a lot of things to do arround houston dont forget the Nasa spacecenter while you are in houston a lot of good restaurants in that areaMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>good hotel near all major highways great place to stay nice pool good breakfast enough parking space beds where good big room.i certainly will stay there again when i am in the area a lot of things to do arround houston dont forget the Nasa spacecenter while you are in houston a lot of good restaurants in that areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r154715777-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154715777</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Convenient and good</t>
+  </si>
+  <si>
+    <t>We stayed on the 7th floor so had no problem with parking lights or road noise.  The only thing we heard were the occasional fire truck.  Clean and simple.  Good breakfasts.  Beds were a little hard.  Just a traditional HI Express.MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded March 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2013</t>
+  </si>
+  <si>
+    <t>We stayed on the 7th floor so had no problem with parking lights or road noise.  The only thing we heard were the occasional fire truck.  Clean and simple.  Good breakfasts.  Beds were a little hard.  Just a traditional HI Express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r152611234-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152611234</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Worst sleep in a long time</t>
+  </si>
+  <si>
+    <t>After seeing the reviews from others, I made sure to get a room on the back side of the hotel. While I didn't hear the highway traffic, I had a bright light right outside my room which was annoying. Also, the air conditioner never turned off. To keep the room cool, you would hear the loud AC all night. If you turn it off, it's stuff and hot. The insulation between the rooms is non-existant as not only could I hear the people above me walking around, I could hear the people on one side of me every time they used the bathroom. The bed and pillows were horrible. I have a pain in my neck from trying to find a comfortable position with these pillows. I travel almost every week and I am used to sleeping on different styles of beds and pillows and can adjust very easily but not here. I was supposed to stay 2 nights but cut it short to one because of the horrible conditions with the bed, AC and noise. The furniture was in good condition and the front desk woman was pleasant...the hotel stay was just not restful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded March 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2013</t>
+  </si>
+  <si>
+    <t>After seeing the reviews from others, I made sure to get a room on the back side of the hotel. While I didn't hear the highway traffic, I had a bright light right outside my room which was annoying. Also, the air conditioner never turned off. To keep the room cool, you would hear the loud AC all night. If you turn it off, it's stuff and hot. The insulation between the rooms is non-existant as not only could I hear the people above me walking around, I could hear the people on one side of me every time they used the bathroom. The bed and pillows were horrible. I have a pain in my neck from trying to find a comfortable position with these pillows. I travel almost every week and I am used to sleeping on different styles of beds and pillows and can adjust very easily but not here. I was supposed to stay 2 nights but cut it short to one because of the horrible conditions with the bed, AC and noise. The furniture was in good condition and the front desk woman was pleasant...the hotel stay was just not restful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r150740288-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150740288</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>Convenient location, friendly staff</t>
+  </si>
+  <si>
+    <t>Centrally located and convenient location just off the Katy Freeway.  Prices are reasonable considering the location.  It is easy to get to local attractions. Memorial Park is a 10-15 minute walk, or a 5 minute drive, away, which is plus--a great place to go for a run.  Staff was very friendly and helpful.  There is a LA Fitness across the street you can use for free as a hotel guest--a nice feature not advertised on the hotel website.  The availability of guest washers and dryers on the 3rd and 5th floor is also a helpful convenience.Negatives:  not much in the way of dining options within walking distance, unless you like Jack in the Box.   Even though my room was on the top floor of the hotel, I could hear freeway traffic throughout the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Centrally located and convenient location just off the Katy Freeway.  Prices are reasonable considering the location.  It is easy to get to local attractions. Memorial Park is a 10-15 minute walk, or a 5 minute drive, away, which is plus--a great place to go for a run.  Staff was very friendly and helpful.  There is a LA Fitness across the street you can use for free as a hotel guest--a nice feature not advertised on the hotel website.  The availability of guest washers and dryers on the 3rd and 5th floor is also a helpful convenience.Negatives:  not much in the way of dining options within walking distance, unless you like Jack in the Box.   Even though my room was on the top floor of the hotel, I could hear freeway traffic throughout the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r148447102-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148447102</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>a good example of why the HIEX chain is so popular</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express motel is on the Katy Freeway, near Houston's Texas-sized Memorial Park.  We've stayed there twice, both in December, three years apart and it was a fine place to say both times.  The location is excellent, out of the intensely crowded Galleria area but close enough to all the places you want to visit in Houston.The hotel is superbly well maintained with the furniture and equipment showing no signs of wear after three years' use.  Despite its proximity to the busy Katy Freeway, the rooms are amazingly quiet. The fitness center is small for a six-story hotel but the equipment is in excellent condition.The only less than five-star feature was a relatively limited breakfast choice which was probably due to the Christmas holiday rush.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express motel is on the Katy Freeway, near Houston's Texas-sized Memorial Park.  We've stayed there twice, both in December, three years apart and it was a fine place to say both times.  The location is excellent, out of the intensely crowded Galleria area but close enough to all the places you want to visit in Houston.The hotel is superbly well maintained with the furniture and equipment showing no signs of wear after three years' use.  Despite its proximity to the busy Katy Freeway, the rooms are amazingly quiet. The fitness center is small for a six-story hotel but the equipment is in excellent condition.The only less than five-star feature was a relatively limited breakfast choice which was probably due to the Christmas holiday rush.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r146493198-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146493198</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Convenient location and clean room but...</t>
+  </si>
+  <si>
+    <t>The convenient location comes with a price - IH 10 (aka Katy Frwy) has traffic noise 24/7 so I highly recommend packing some earplugs.  In addition, the walls (and floors) are not very sound proof, and they have some kind of power-assist toilet flush that is extremely loud - even through earplugs!  I was disappointed that during our entire 5-day stay over Thanksgiving weekend the pool was "out-of-service"; the adjacent workout work was stifling hot and unusable, and then the NBC Channel did not have sound ("a problem with their cable supplier").  It would be nice if they had the HGTV channel in addition (or instead of) the 4 ESPN and Speed channels.  There is a strong room freshener smell in the 5th floor hall that could be a problem for those with respiratory ailments.Most of the staff was friendly and the free breakfast was decent. We'll probably stay there again but next time I'll ask in advance about hotel amenity issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded December 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2012</t>
+  </si>
+  <si>
+    <t>The convenient location comes with a price - IH 10 (aka Katy Frwy) has traffic noise 24/7 so I highly recommend packing some earplugs.  In addition, the walls (and floors) are not very sound proof, and they have some kind of power-assist toilet flush that is extremely loud - even through earplugs!  I was disappointed that during our entire 5-day stay over Thanksgiving weekend the pool was "out-of-service"; the adjacent workout work was stifling hot and unusable, and then the NBC Channel did not have sound ("a problem with their cable supplier").  It would be nice if they had the HGTV channel in addition (or instead of) the 4 ESPN and Speed channels.  There is a strong room freshener smell in the 5th floor hall that could be a problem for those with respiratory ailments.Most of the staff was friendly and the free breakfast was decent. We'll probably stay there again but next time I'll ask in advance about hotel amenity issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r143892676-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143892676</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Average Stay</t>
+  </si>
+  <si>
+    <t>Tried this hotel on a recent monthly trip to Houston.  Check in was a little slow because they did not have clean rooms ready.  I did get recognized at a Platinum PC member and received a nice gift bag at check in.  When I exited the elevator for my floor I was overwhelmed with the smell of air freshener (very strong).  The room was a good size with a microwave and refrigerator but could use some updating.  The furniture, fixtures and soft goods are outdates compared to what is seem with renovated and new HI Express hotels.  It was hot outside and they had the a/c on when I entered the room, which was nice. The ceiling had cracks and looks like there were botched repair work.  The carpet could use some cleaning.  The bathroom is small and could use some updating.  Breakfast was a little disappointing - I prefer waffles and thee was a pancake machine.  All the other food looked a little dried out so I just had juice (not competitive with competing brands).  Overall this is a good HI Express that is clean but could pay more attention to detail.  Example - Dead plants at the exterior entrance.  Heavy bruised apples in the lobby and some of the work seen around the hotel doesn’t look to be completed by someone who is a professional at repairs and renovation.  I had future reservations but decided to switch my...Tried this hotel on a recent monthly trip to Houston.  Check in was a little slow because they did not have clean rooms ready.  I did get recognized at a Platinum PC member and received a nice gift bag at check in.  When I exited the elevator for my floor I was overwhelmed with the smell of air freshener (very strong).  The room was a good size with a microwave and refrigerator but could use some updating.  The furniture, fixtures and soft goods are outdates compared to what is seem with renovated and new HI Express hotels.  It was hot outside and they had the a/c on when I entered the room, which was nice. The ceiling had cracks and looks like there were botched repair work.  The carpet could use some cleaning.  The bathroom is small and could use some updating.  Breakfast was a little disappointing - I prefer waffles and thee was a pancake machine.  All the other food looked a little dried out so I just had juice (not competitive with competing brands).  Overall this is a good HI Express that is clean but could pay more attention to detail.  Example - Dead plants at the exterior entrance.  Heavy bruised apples in the lobby and some of the work seen around the hotel doesn’t look to be completed by someone who is a professional at repairs and renovation.  I had future reservations but decided to switch my stays to another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Tried this hotel on a recent monthly trip to Houston.  Check in was a little slow because they did not have clean rooms ready.  I did get recognized at a Platinum PC member and received a nice gift bag at check in.  When I exited the elevator for my floor I was overwhelmed with the smell of air freshener (very strong).  The room was a good size with a microwave and refrigerator but could use some updating.  The furniture, fixtures and soft goods are outdates compared to what is seem with renovated and new HI Express hotels.  It was hot outside and they had the a/c on when I entered the room, which was nice. The ceiling had cracks and looks like there were botched repair work.  The carpet could use some cleaning.  The bathroom is small and could use some updating.  Breakfast was a little disappointing - I prefer waffles and thee was a pancake machine.  All the other food looked a little dried out so I just had juice (not competitive with competing brands).  Overall this is a good HI Express that is clean but could pay more attention to detail.  Example - Dead plants at the exterior entrance.  Heavy bruised apples in the lobby and some of the work seen around the hotel doesn’t look to be completed by someone who is a professional at repairs and renovation.  I had future reservations but decided to switch my...Tried this hotel on a recent monthly trip to Houston.  Check in was a little slow because they did not have clean rooms ready.  I did get recognized at a Platinum PC member and received a nice gift bag at check in.  When I exited the elevator for my floor I was overwhelmed with the smell of air freshener (very strong).  The room was a good size with a microwave and refrigerator but could use some updating.  The furniture, fixtures and soft goods are outdates compared to what is seem with renovated and new HI Express hotels.  It was hot outside and they had the a/c on when I entered the room, which was nice. The ceiling had cracks and looks like there were botched repair work.  The carpet could use some cleaning.  The bathroom is small and could use some updating.  Breakfast was a little disappointing - I prefer waffles and thee was a pancake machine.  All the other food looked a little dried out so I just had juice (not competitive with competing brands).  Overall this is a good HI Express that is clean but could pay more attention to detail.  Example - Dead plants at the exterior entrance.  Heavy bruised apples in the lobby and some of the work seen around the hotel doesn’t look to be completed by someone who is a professional at repairs and renovation.  I had future reservations but decided to switch my stays to another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r137141280-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137141280</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Lovely Stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the hotel recently, while visiting from London.  The hotel was perfect for our needs, the room was large, and the fridge was a welcome addition.  There was no noise whatsoever from I10.  The bed linen was changed daily and the room cleaned beautifully.   Breakfast was plentiful - no excuse for going hungry !  The reception staff were wonderfully helpful and very friendly.  We would not hesitate to return on our next trip.  True, the view is not wonderful, but who wants to sit in their hotel room all day looking out of the window !</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r135842384-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135842384</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Not too Impressed</t>
+  </si>
+  <si>
+    <t>The hotel is located right on interstate 10, which means that you can hear noise from the highway. The location is OK, close to downtown Houston. The rooms are not too renovated, as the furniture is dated. Also, the hallways and rooms feel quite stuffy and dirty. Overall, the hotel is not clean. The breakfast is good, with cinnamon rolls, eggs, ham, etc. I would try a different hotel next time I visit Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>The hotel is located right on interstate 10, which means that you can hear noise from the highway. The location is OK, close to downtown Houston. The rooms are not too renovated, as the furniture is dated. Also, the hallways and rooms feel quite stuffy and dirty. Overall, the hotel is not clean. The breakfast is good, with cinnamon rolls, eggs, ham, etc. I would try a different hotel next time I visit Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r133735225-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133735225</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Charged twice!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at this hotel on business. When we checked in we paid in cash, but they insisted it was company policy to still have a card on file (as many do). BUT even though we already paid, they charged my card as well! Saying it was a "pending" transaction that would clear. Well, with daily effort talking to rude employees and managers, I was FINALLY returned my money TWO WEEKS later. Had I not noticed, they would have stolen my money happily. The fact that they tried to justify the fact that they charged me for two nights when I stayed for one night was insane. Besides the horrible money issue, hotel quality was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at this hotel on business. When we checked in we paid in cash, but they insisted it was company policy to still have a card on file (as many do). BUT even though we already paid, they charged my card as well! Saying it was a "pending" transaction that would clear. Well, with daily effort talking to rude employees and managers, I was FINALLY returned my money TWO WEEKS later. Had I not noticed, they would have stolen my money happily. The fact that they tried to justify the fact that they charged me for two nights when I stayed for one night was insane. Besides the horrible money issue, hotel quality was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r132675306-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132675306</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>everything was great, I visited the website and read reviews before going, and I would like to say everyone has their own opinion due to their personality. I had a pleasent stay and I would go back there again.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r131212333-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131212333</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Very Good Stay</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located off the freeway.  The rooms were well maintained and the front desk was very attentive.   The breakfast staff kept pace with the crowd and was clean.  The parking area was large enough to handle the number of guests and safe.  I did not use the pool but it looked well maintained.  This was my second stay at this hotel and I will gladly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located off the freeway.  The rooms were well maintained and the front desk was very attentive.   The breakfast staff kept pace with the crowd and was clean.  The parking area was large enough to handle the number of guests and safe.  I did not use the pool but it looked well maintained.  This was my second stay at this hotel and I will gladly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r129959684-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129959684</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Stayed for 4 days, the rooms was spacious and nicely cleaned.  The breakfast I found excellent with a nice selection from pancakes, bagel, muffin, bread, yogurt, cereal, milks, eggs, sausages, buscuit, bacon to a nice selection of teas &amp; juice-very complete.  The staff is friendly and very attentive.  Location was great with easy access to freeway only 10 mins to Galleria Mall and 15 to Downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for 4 days, the rooms was spacious and nicely cleaned.  The breakfast I found excellent with a nice selection from pancakes, bagel, muffin, bread, yogurt, cereal, milks, eggs, sausages, buscuit, bacon to a nice selection of teas &amp; juice-very complete.  The staff is friendly and very attentive.  Location was great with easy access to freeway only 10 mins to Galleria Mall and 15 to Downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r128375279-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128375279</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Easy to stay</t>
+  </si>
+  <si>
+    <t>I've stay here twice when biz trip in Houston. The hotel is close to freeway. It is also not far away from Galleria with proper room rate. The parking area is not small. The front desk always help customer on what they need. The room is well cleaned and the AC is in good condition.The only concern is the room close to the Katy freeway side is a little big noise than opposite side.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stay here twice when biz trip in Houston. The hotel is close to freeway. It is also not far away from Galleria with proper room rate. The parking area is not small. The front desk always help customer on what they need. The room is well cleaned and the AC is in good condition.The only concern is the room close to the Katy freeway side is a little big noise than opposite side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r127856944-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127856944</t>
+  </si>
+  <si>
+    <t>04/14/2012</t>
+  </si>
+  <si>
+    <t>HI Memorial</t>
+  </si>
+  <si>
+    <t>Staff very friendly &amp; helpful , front desk went out of their way to accommodate me at check in. Rooms about what expected at HI Express clean nice, AC not working that well but ok. Great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff very friendly &amp; helpful , front desk went out of their way to accommodate me at check in. Rooms about what expected at HI Express clean nice, AC not working that well but ok. Great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r126976716-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126976716</t>
+  </si>
+  <si>
+    <t>03/30/2012</t>
+  </si>
+  <si>
+    <t>Nice Place, Nice Staff, Nice Manager</t>
+  </si>
+  <si>
+    <t>I stay here most of the times i come to Houston, the other times i stay at another H/I simply because it puts me closer to my clients. This Hotel is very Central close to hundreds of restaurants, mall, entartainment. The staffg is incredible and will bend over backwards to take care of you, when at the Hotel say hi to Eddie the Manager tell them Luis sent you, this man will do anything to make sure you have the best stay ever, There is only one person that comes across as not caring and she only deals with the meeting, but luckuly you may never see her. Stay here you will love the staff, management and location, ohh and they also serve hot chocolate chips cookies every afternoon which is kind of nice to have as a snack after returning from work.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded May 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2012</t>
+  </si>
+  <si>
+    <t>I stay here most of the times i come to Houston, the other times i stay at another H/I simply because it puts me closer to my clients. This Hotel is very Central close to hundreds of restaurants, mall, entartainment. The staffg is incredible and will bend over backwards to take care of you, when at the Hotel say hi to Eddie the Manager tell them Luis sent you, this man will do anything to make sure you have the best stay ever, There is only one person that comes across as not caring and she only deals with the meeting, but luckuly you may never see her. Stay here you will love the staff, management and location, ohh and they also serve hot chocolate chips cookies every afternoon which is kind of nice to have as a snack after returning from work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r126876124-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126876124</t>
+  </si>
+  <si>
+    <t>03/28/2012</t>
+  </si>
+  <si>
+    <t>Good stay overall</t>
+  </si>
+  <si>
+    <t>I stayed at this HIE for four nights.  It's been recently renovated and the room, bed, bedding, etc. were all in excellent condition.  It's right next to the I-10 Freeway so I asked for and received a room at the back of the hotel.  I never heard any outside noise, except in the middle of one night when someone's car alarm went off repeatedly over the span of about 30 minutes.While I was there, the pool was being repaired, so although it was available, the water temp. was not comfortable.  I told the front desk staff that one of the reasons I booked into this location was because of the pool.  They cheerfully adjusted my bill in keeping with their 100% satisfaction guarantee.During my stay, I  had a few other requests of the front desk, and Griselda cheerfully and professionally took care of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded April 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this HIE for four nights.  It's been recently renovated and the room, bed, bedding, etc. were all in excellent condition.  It's right next to the I-10 Freeway so I asked for and received a room at the back of the hotel.  I never heard any outside noise, except in the middle of one night when someone's car alarm went off repeatedly over the span of about 30 minutes.While I was there, the pool was being repaired, so although it was available, the water temp. was not comfortable.  I told the front desk staff that one of the reasons I booked into this location was because of the pool.  They cheerfully adjusted my bill in keeping with their 100% satisfaction guarantee.During my stay, I  had a few other requests of the front desk, and Griselda cheerfully and professionally took care of them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r125408298-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125408298</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>No complaints.</t>
+  </si>
+  <si>
+    <t>We stayed one night while in town helping my son move.  I'm very particular about hotels.  We found this hotel to have a very accomodating and friendly front desk.  Rooms were clean and comfortable.  There have been a few reviews about this particular area of Houston, which is actually a very nice, older part of Houston with many shops and restaurants  nearby.  Would definitely stay here again next time we're in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>We stayed one night while in town helping my son move.  I'm very particular about hotels.  We found this hotel to have a very accomodating and friendly front desk.  Rooms were clean and comfortable.  There have been a few reviews about this particular area of Houston, which is actually a very nice, older part of Houston with many shops and restaurants  nearby.  Would definitely stay here again next time we're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r123540157-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123540157</t>
+  </si>
+  <si>
+    <t>01/24/2012</t>
+  </si>
+  <si>
+    <t>Worst stay ever</t>
+  </si>
+  <si>
+    <t>No restaurant in the eveningHugh noise from ACNo minibarNo curtains to get room darkFlimmering televisionNot value for moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded January 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2012</t>
+  </si>
+  <si>
+    <t>No restaurant in the eveningHugh noise from ACNo minibarNo curtains to get room darkFlimmering televisionNot value for moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r123181402-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123181402</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>Great choice for access to central Houston</t>
+  </si>
+  <si>
+    <t>We just got back from a 2-night stay at this hotel. The check-in staff was fantastic and made sure our stay was a good one. We chose this hotel for the location, since it offered convenient access to downtown, port of Houston and the Galleria, without the inflated prices.
+As at other Holiday Inn Express hotels, the breakfast is complementary. This is a nice perk, especially when traveling with family, as we were. Parking is also free here, an advantage over staying in other locations in Houston. As another reviewer pointed out, some of the immediate area around the hotel is a bit sketchy (although there are mansions just a few blocks away), but we didn't have any problems with security.
+The first night we stayed in a double-queen room. I had requested a rollaway bed, but found out at check-in that it wasn't allowed in that size of room because of the fire code. That made for a tight sleep for our family of 5, although fortunately the youngest is small enough to not take up much room yet. The next night we were able to upgrade to a suite, which was _definitely_ worth the extra $10/night. It was _huge_ compared to the first. This room had a double-queen in the bedroom, a very nice sized bathroom, a separate living area with a sleeper sofa and a dining table, and a nicely appointed kitchenette.
+All in all, we really...We just got back from a 2-night stay at this hotel. The check-in staff was fantastic and made sure our stay was a good one. We chose this hotel for the location, since it offered convenient access to downtown, port of Houston and the Galleria, without the inflated prices.As at other Holiday Inn Express hotels, the breakfast is complementary. This is a nice perk, especially when traveling with family, as we were. Parking is also free here, an advantage over staying in other locations in Houston. As another reviewer pointed out, some of the immediate area around the hotel is a bit sketchy (although there are mansions just a few blocks away), but we didn't have any problems with security.The first night we stayed in a double-queen room. I had requested a rollaway bed, but found out at check-in that it wasn't allowed in that size of room because of the fire code. That made for a tight sleep for our family of 5, although fortunately the youngest is small enough to not take up much room yet. The next night we were able to upgrade to a suite, which was _definitely_ worth the extra $10/night. It was _huge_ compared to the first. This room had a double-queen in the bedroom, a very nice sized bathroom, a separate living area with a sleeper sofa and a dining table, and a nicely appointed kitchenette.All in all, we really enjoyed our stay at this hotel and will definitely stay here again (in the suite!) next time we're in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded January 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2012</t>
+  </si>
+  <si>
+    <t>We just got back from a 2-night stay at this hotel. The check-in staff was fantastic and made sure our stay was a good one. We chose this hotel for the location, since it offered convenient access to downtown, port of Houston and the Galleria, without the inflated prices.
+As at other Holiday Inn Express hotels, the breakfast is complementary. This is a nice perk, especially when traveling with family, as we were. Parking is also free here, an advantage over staying in other locations in Houston. As another reviewer pointed out, some of the immediate area around the hotel is a bit sketchy (although there are mansions just a few blocks away), but we didn't have any problems with security.
+The first night we stayed in a double-queen room. I had requested a rollaway bed, but found out at check-in that it wasn't allowed in that size of room because of the fire code. That made for a tight sleep for our family of 5, although fortunately the youngest is small enough to not take up much room yet. The next night we were able to upgrade to a suite, which was _definitely_ worth the extra $10/night. It was _huge_ compared to the first. This room had a double-queen in the bedroom, a very nice sized bathroom, a separate living area with a sleeper sofa and a dining table, and a nicely appointed kitchenette.
+All in all, we really...We just got back from a 2-night stay at this hotel. The check-in staff was fantastic and made sure our stay was a good one. We chose this hotel for the location, since it offered convenient access to downtown, port of Houston and the Galleria, without the inflated prices.As at other Holiday Inn Express hotels, the breakfast is complementary. This is a nice perk, especially when traveling with family, as we were. Parking is also free here, an advantage over staying in other locations in Houston. As another reviewer pointed out, some of the immediate area around the hotel is a bit sketchy (although there are mansions just a few blocks away), but we didn't have any problems with security.The first night we stayed in a double-queen room. I had requested a rollaway bed, but found out at check-in that it wasn't allowed in that size of room because of the fire code. That made for a tight sleep for our family of 5, although fortunately the youngest is small enough to not take up much room yet. The next night we were able to upgrade to a suite, which was _definitely_ worth the extra $10/night. It was _huge_ compared to the first. This room had a double-queen in the bedroom, a very nice sized bathroom, a separate living area with a sleeper sofa and a dining table, and a nicely appointed kitchenette.All in all, we really enjoyed our stay at this hotel and will definitely stay here again (in the suite!) next time we're in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r119813266-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119813266</t>
+  </si>
+  <si>
+    <t>10/27/2011</t>
+  </si>
+  <si>
+    <t>Clean and Convenient</t>
+  </si>
+  <si>
+    <t>I spent just one night here and did not linger the next day. That being said, the rooms were clean and comfortable. The staff was very friendly and helpful.  The free wireless worked great and there was a good choice for breakfast. The only negative is that the hotel is very close to the highway. It's convenient, but there was some highway noise.  We had turned off the heater/ AC unit which may have helped mask the noise a bit, but I think it still would have been noticeable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I spent just one night here and did not linger the next day. That being said, the rooms were clean and comfortable. The staff was very friendly and helpful.  The free wireless worked great and there was a good choice for breakfast. The only negative is that the hotel is very close to the highway. It's convenient, but there was some highway noise.  We had turned off the heater/ AC unit which may have helped mask the noise a bit, but I think it still would have been noticeable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r116391833-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116391833</t>
+  </si>
+  <si>
+    <t>08/07/2011</t>
+  </si>
+  <si>
+    <t>Total satisfaction!</t>
+  </si>
+  <si>
+    <t>This is a well run operation. The management team is courteous and efficient reflecting a very effective management style. Good management always starts at the top and it is apparent that this place has an excellent manager. The rooms are comfortable and always cleaned to perfection. The staff takes pride in their work and they are eager to assist the guests as needed. We highly recommend this convenient location for your next visit to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded August 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2011</t>
+  </si>
+  <si>
+    <t>This is a well run operation. The management team is courteous and efficient reflecting a very effective management style. Good management always starts at the top and it is apparent that this place has an excellent manager. The rooms are comfortable and always cleaned to perfection. The staff takes pride in their work and they are eager to assist the guests as needed. We highly recommend this convenient location for your next visit to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r115505550-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115505550</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>Awesome Hotel and Services!!</t>
+  </si>
+  <si>
+    <t>Great value for Hotel Stay...was there for a full week and was extremely pleased. Front counter staff was awesome..Room was spotless....Daily Breakfast was fresh, tasty and Free!!Pool was very clean and access to computer and printer was invaluable!!'Fresh baked cookies at 4:00 daily!!  I travel extensively throughout the country and my first ever visit to steamy Houston was made very comfortable by this Hotel and it's great super friendly Staff!! I will definitly return here again.They made it a point to remember my name upon registration and I was addressed personally every day ..Very convenient walking distance to plenty of food restaurants...Thanks for a great stay!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Great value for Hotel Stay...was there for a full week and was extremely pleased. Front counter staff was awesome..Room was spotless....Daily Breakfast was fresh, tasty and Free!!Pool was very clean and access to computer and printer was invaluable!!'Fresh baked cookies at 4:00 daily!!  I travel extensively throughout the country and my first ever visit to steamy Houston was made very comfortable by this Hotel and it's great super friendly Staff!! I will definitly return here again.They made it a point to remember my name upon registration and I was addressed personally every day ..Very convenient walking distance to plenty of food restaurants...Thanks for a great stay!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r113218412-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>113218412</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Fun Place To Stay</t>
+  </si>
+  <si>
+    <t>Awesome hotel! Clean Pool and hot tub. Beds were great and no smoke or mildew. Staff was very professional and knowledgeable of roads and destinations. It is close to the Marquee on I-10 and Memorial Park. No complaints here.- The computer needs to be reformatted in the lobby. I had trouble checking facebook and email because of all the spyware and possible viruses.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r5932317-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5932317</t>
+  </si>
+  <si>
+    <t>10/08/2006</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>I stayed here for six nights in May 2006.  It is not really near the Galleria and with the major (major) roadworks this made the distance more obvious.A decent room but the whirlpool bath made it smell of damp the entire time.  Service was average with me needing to remind them of the type of room I had booked.   They also weren't as friendly compared with other places I have stayed in Houston.Good things include, the high speed internet access which was easy to hook up and the fact that the floor was quiet.  Good parking access, reasonably safe and had convenient places to eat nearby.  The daily chambermaid service was good.  The ZIP code is not included in the provided magazine listings of Houston takeaway services so redundant as the vast majority of those are not available.Frankly, it was ok but there are better places in Houston to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for six nights in May 2006.  It is not really near the Galleria and with the major (major) roadworks this made the distance more obvious.A decent room but the whirlpool bath made it smell of damp the entire time.  Service was average with me needing to remind them of the type of room I had booked.   They also weren't as friendly compared with other places I have stayed in Houston.Good things include, the high speed internet access which was easy to hook up and the fact that the floor was quiet.  Good parking access, reasonably safe and had convenient places to eat nearby.  The daily chambermaid service was good.  The ZIP code is not included in the provided magazine listings of Houston takeaway services so redundant as the vast majority of those are not available.Frankly, it was ok but there are better places in Houston to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r4937477-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4937477</t>
+  </si>
+  <si>
+    <t>04/04/2006</t>
+  </si>
+  <si>
+    <t>The hotel is o.k. with reasonably large, clean rooms. The small indoor pool was perfectly adequate, in fact move the hotel to a nicer spot and it would receive my recommendation. However, with major road works currently underway in Houston it feels really cut off. It is also not that close to the Galleria, do not assume you will see a view like the one used to advertise the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r4148450-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4148450</t>
+  </si>
+  <si>
+    <t>11/27/2005</t>
+  </si>
+  <si>
+    <t>Went Swimming in room</t>
+  </si>
+  <si>
+    <t>The first night was a nightmare in the morning. Water was running through the ceiling into the room as we took a shower and the toilet was also running over at the same time so I had to stand on the tub and jump over the stinky water into the part of the room but when I hit the seemingly dry carpet it splashed everywhere because it wasn`t just in the bathroom but soaking under the carpet in the other room and also got on some of my clothes that were touching the floor...yuk I washed my feet in the sink and then stepped in it again because it was running under the carpet. I washed again, got my shoes on right away, called the front desk and started gathering my things.
+They gave us another room and thought it was funny how we "went swimming".  The other two nights were ok  exept for the carpet needed cleaning and was kind of gummy/gritty feeling under my feet...so I put my shoes back on. 
+The breakfast lobby looked really nice, the food was fresh and good coffee as well. The fitness/laundry room has coin laundry machines, one fitness machine with a pulldown, a rickety wobbly ski type machine, a bike and a decent treadmill but the key was missing so I folded up some paper for a key to get the treadmill to work.  It proved to be a really nice...The first night was a nightmare in the morning. Water was running through the ceiling into the room as we took a shower and the toilet was also running over at the same time so I had to stand on the tub and jump over the stinky water into the part of the room but when I hit the seemingly dry carpet it splashed everywhere because it wasn`t just in the bathroom but soaking under the carpet in the other room and also got on some of my clothes that were touching the floor...yuk I washed my feet in the sink and then stepped in it again because it was running under the carpet. I washed again, got my shoes on right away, called the front desk and started gathering my things.They gave us another room and thought it was funny how we "went swimming".  The other two nights were ok  exept for the carpet needed cleaning and was kind of gummy/gritty feeling under my feet...so I put my shoes back on. The breakfast lobby looked really nice, the food was fresh and good coffee as well. The fitness/laundry room has coin laundry machines, one fitness machine with a pulldown, a rickety wobbly ski type machine, a bike and a decent treadmill but the key was missing so I folded up some paper for a key to get the treadmill to work.  It proved to be a really nice treadmill and I did like the treadmill.I realize this kind of thing can happen anywhere but they did not give us any compensation for the maintenance problem fiasco of any sort.  No free night, no reduced priced nothing. It was a 90 something dollar "swim" for that first night and the other two nights were fine exept for the carpet which I tolerated because I was tired and did not want to move our stuff again. Overall the stay at the motel would have been better had they had compensated us for the bad room.MoreShow less</t>
+  </si>
+  <si>
+    <t>The first night was a nightmare in the morning. Water was running through the ceiling into the room as we took a shower and the toilet was also running over at the same time so I had to stand on the tub and jump over the stinky water into the part of the room but when I hit the seemingly dry carpet it splashed everywhere because it wasn`t just in the bathroom but soaking under the carpet in the other room and also got on some of my clothes that were touching the floor...yuk I washed my feet in the sink and then stepped in it again because it was running under the carpet. I washed again, got my shoes on right away, called the front desk and started gathering my things.
+They gave us another room and thought it was funny how we "went swimming".  The other two nights were ok  exept for the carpet needed cleaning and was kind of gummy/gritty feeling under my feet...so I put my shoes back on. 
+The breakfast lobby looked really nice, the food was fresh and good coffee as well. The fitness/laundry room has coin laundry machines, one fitness machine with a pulldown, a rickety wobbly ski type machine, a bike and a decent treadmill but the key was missing so I folded up some paper for a key to get the treadmill to work.  It proved to be a really nice...The first night was a nightmare in the morning. Water was running through the ceiling into the room as we took a shower and the toilet was also running over at the same time so I had to stand on the tub and jump over the stinky water into the part of the room but when I hit the seemingly dry carpet it splashed everywhere because it wasn`t just in the bathroom but soaking under the carpet in the other room and also got on some of my clothes that were touching the floor...yuk I washed my feet in the sink and then stepped in it again because it was running under the carpet. I washed again, got my shoes on right away, called the front desk and started gathering my things.They gave us another room and thought it was funny how we "went swimming".  The other two nights were ok  exept for the carpet needed cleaning and was kind of gummy/gritty feeling under my feet...so I put my shoes back on. The breakfast lobby looked really nice, the food was fresh and good coffee as well. The fitness/laundry room has coin laundry machines, one fitness machine with a pulldown, a rickety wobbly ski type machine, a bike and a decent treadmill but the key was missing so I folded up some paper for a key to get the treadmill to work.  It proved to be a really nice treadmill and I did like the treadmill.I realize this kind of thing can happen anywhere but they did not give us any compensation for the maintenance problem fiasco of any sort.  No free night, no reduced priced nothing. It was a 90 something dollar "swim" for that first night and the other two nights were fine exept for the carpet which I tolerated because I was tired and did not want to move our stuff again. Overall the stay at the motel would have been better had they had compensated us for the bad room.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1931,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1963,4156 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>233</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>234</v>
+      </c>
+      <c r="X29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>259</v>
+      </c>
+      <c r="X32" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" t="s">
+        <v>264</v>
+      </c>
+      <c r="K33" t="s">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>258</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X33" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>275</v>
+      </c>
+      <c r="X34" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>279</v>
+      </c>
+      <c r="J35" t="s">
+        <v>280</v>
+      </c>
+      <c r="K35" t="s">
+        <v>281</v>
+      </c>
+      <c r="L35" t="s">
+        <v>282</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>283</v>
+      </c>
+      <c r="O35" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>284</v>
+      </c>
+      <c r="X35" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K36" t="s">
+        <v>290</v>
+      </c>
+      <c r="L36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>292</v>
+      </c>
+      <c r="X36" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>299</v>
+      </c>
+      <c r="X37" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>299</v>
+      </c>
+      <c r="X38" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" t="s">
+        <v>311</v>
+      </c>
+      <c r="K39" t="s">
+        <v>312</v>
+      </c>
+      <c r="L39" t="s">
+        <v>313</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>314</v>
+      </c>
+      <c r="X39" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>318</v>
+      </c>
+      <c r="J40" t="s">
+        <v>319</v>
+      </c>
+      <c r="K40" t="s">
+        <v>320</v>
+      </c>
+      <c r="L40" t="s">
+        <v>321</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>322</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>323</v>
+      </c>
+      <c r="X40" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>327</v>
+      </c>
+      <c r="J41" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s">
+        <v>330</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>332</v>
+      </c>
+      <c r="X41" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>337</v>
+      </c>
+      <c r="K42" t="s">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>343</v>
+      </c>
+      <c r="J43" t="s">
+        <v>344</v>
+      </c>
+      <c r="K43" t="s">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s">
+        <v>346</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>347</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>348</v>
+      </c>
+      <c r="X43" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" t="s">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>356</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>358</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>359</v>
+      </c>
+      <c r="J45" t="s">
+        <v>360</v>
+      </c>
+      <c r="K45" t="s">
+        <v>361</v>
+      </c>
+      <c r="L45" t="s">
+        <v>362</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>363</v>
+      </c>
+      <c r="O45" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>365</v>
+      </c>
+      <c r="J46" t="s">
+        <v>366</v>
+      </c>
+      <c r="K46" t="s">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s">
+        <v>368</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>363</v>
+      </c>
+      <c r="O46" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>369</v>
+      </c>
+      <c r="X46" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>378</v>
+      </c>
+      <c r="X47" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>382</v>
+      </c>
+      <c r="J48" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" t="s">
+        <v>385</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>91</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" t="s">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s">
+        <v>390</v>
+      </c>
+      <c r="L49" t="s">
+        <v>391</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>378</v>
+      </c>
+      <c r="X49" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>396</v>
+      </c>
+      <c r="O50" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>378</v>
+      </c>
+      <c r="X50" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>400</v>
+      </c>
+      <c r="J51" t="s">
+        <v>401</v>
+      </c>
+      <c r="K51" t="s">
+        <v>402</v>
+      </c>
+      <c r="L51" t="s">
+        <v>403</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>396</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>378</v>
+      </c>
+      <c r="X51" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>405</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>406</v>
+      </c>
+      <c r="J52" t="s">
+        <v>407</v>
+      </c>
+      <c r="K52" t="s">
+        <v>408</v>
+      </c>
+      <c r="L52" t="s">
+        <v>409</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>378</v>
+      </c>
+      <c r="X52" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>411</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>412</v>
+      </c>
+      <c r="J53" t="s">
+        <v>413</v>
+      </c>
+      <c r="K53" t="s">
+        <v>414</v>
+      </c>
+      <c r="L53" t="s">
+        <v>415</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>416</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X53" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>420</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>421</v>
+      </c>
+      <c r="J54" t="s">
+        <v>422</v>
+      </c>
+      <c r="K54" t="s">
+        <v>423</v>
+      </c>
+      <c r="L54" t="s">
+        <v>424</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>416</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>425</v>
+      </c>
+      <c r="X54" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>428</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>429</v>
+      </c>
+      <c r="J55" t="s">
+        <v>430</v>
+      </c>
+      <c r="K55" t="s">
+        <v>431</v>
+      </c>
+      <c r="L55" t="s">
+        <v>432</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>433</v>
+      </c>
+      <c r="O55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>425</v>
+      </c>
+      <c r="X55" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>436</v>
+      </c>
+      <c r="J56" t="s">
+        <v>437</v>
+      </c>
+      <c r="K56" t="s">
+        <v>438</v>
+      </c>
+      <c r="L56" t="s">
+        <v>439</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>440</v>
+      </c>
+      <c r="X56" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J57" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s">
+        <v>447</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>448</v>
+      </c>
+      <c r="O57" t="s">
+        <v>85</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>449</v>
+      </c>
+      <c r="X57" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>453</v>
+      </c>
+      <c r="J58" t="s">
+        <v>454</v>
+      </c>
+      <c r="K58" t="s">
+        <v>455</v>
+      </c>
+      <c r="L58" t="s">
+        <v>456</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>457</v>
+      </c>
+      <c r="O58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>449</v>
+      </c>
+      <c r="X58" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>459</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>460</v>
+      </c>
+      <c r="J59" t="s">
+        <v>461</v>
+      </c>
+      <c r="K59" t="s">
+        <v>462</v>
+      </c>
+      <c r="L59" t="s">
+        <v>463</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>464</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>465</v>
+      </c>
+      <c r="X59" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>473</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>465</v>
+      </c>
+      <c r="X60" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>475</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>476</v>
+      </c>
+      <c r="J61" t="s">
+        <v>477</v>
+      </c>
+      <c r="K61" t="s">
+        <v>478</v>
+      </c>
+      <c r="L61" t="s">
+        <v>479</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>464</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>480</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>481</v>
+      </c>
+      <c r="J62" t="s">
+        <v>482</v>
+      </c>
+      <c r="K62" t="s">
+        <v>483</v>
+      </c>
+      <c r="L62" t="s">
+        <v>484</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>486</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>487</v>
+      </c>
+      <c r="J63" t="s">
+        <v>488</v>
+      </c>
+      <c r="K63" t="s">
+        <v>483</v>
+      </c>
+      <c r="L63" t="s">
+        <v>489</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>490</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J64" t="s">
+        <v>492</v>
+      </c>
+      <c r="K64" t="s">
+        <v>493</v>
+      </c>
+      <c r="L64" t="s">
+        <v>494</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_327.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_327.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="791">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r589556476-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>268145</t>
+  </si>
+  <si>
+    <t>589556476</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>I had an event in the area I was working till early morning hours. My wife and kids stayed here while I worked and enjoyed the pool (inside) and the room!Breakfast was awesome and the beds and room were clean and comfortable! Loved the pillows!!Great place and really affordable pricing!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r523434439-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523434439</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Stayed Here as a Result of Harvey</t>
+  </si>
+  <si>
+    <t>We booked this hotel a couple of days before returning to Houston right after Harvey and not knowing what state our house was in.We were charged the normal rate  ...... definitely no gouging although many hotels were full.The hotel staff were very welcoming despite their own hurricane issues.The room was clean and the bed was very comfortable...... the shower was hot!We stayed 4 nights. This hotel is very well located.  The location was a bonus with all of the North South routes west of 610 blocked.Really thankful for the wonderful stay and especially the attitude/helpfulness and professionalism of the staff when there was significant disaster not far away.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r546900455-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>268145</t>
-  </si>
-  <si>
     <t>546900455</t>
   </si>
   <si>
@@ -198,9 +240,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r536611741-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -226,6 +265,48 @@
   </si>
   <si>
     <t>The place is under development, with no warning or apology from management. The wifi barely works, there is no restaurant right now, no room service, one elevator not working, major road noise from Katy freeway and $200 per night, non refundable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r536300331-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536300331</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Room Facing the Highway Had Unacceptable Road Noise</t>
+  </si>
+  <si>
+    <t>I always travel with ear plugs, but even they could not block out the noise from the freeway directly across the street from this property.  I was on the the top 7th floor and the sound was as if my window was open.  It took a little prodding, but the front desk allowed me to move to a room across the hall.  It was much better.  The rest of the stay and facility were on par with a standard HIE property, though this one appeared to have some remodeling going on in the lobby area.  Would rate this property as Average if you have a room facing the rear of the hotel,.  Would rate it asTerrible if you have a room facing the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>I always travel with ear plugs, but even they could not block out the noise from the freeway directly across the street from this property.  I was on the the top 7th floor and the sound was as if my window was open.  It took a little prodding, but the front desk allowed me to move to a room across the hall.  It was much better.  The rest of the stay and facility were on par with a standard HIE property, though this one appeared to have some remodeling going on in the lobby area.  Would rate this property as Average if you have a room facing the rear of the hotel,.  Would rate it asTerrible if you have a room facing the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r535219602-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535219602</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Bed Bugs Beware!</t>
+  </si>
+  <si>
+    <t>After several unsuccessful attempts to deal with Hotel Management directly about this issue this is a public service announcement to warn guests not to stay at this hotel. Guests leave with bug bites. Management is aware and won't return phone calls. Corporate advised to deal with hotel directly and management does not care. Beg bugs are nasty painful and horrendous. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>After several unsuccessful attempts to deal with Hotel Management directly about this issue this is a public service announcement to warn guests not to stay at this hotel. Guests leave with bug bites. Management is aware and won't return phone calls. Corporate advised to deal with hotel directly and management does not care. Beg bugs are nasty painful and horrendous. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r531545229-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
@@ -278,9 +359,6 @@
     <t>My husband and I were evacuees in Houston after Hurricane Harvey hit and ended up staying here almost a week with our 2 cats. The staff were going through the same pressure and stress as the rest of the city, but still managed to make us feel safe and welcome while we looked for a new home.</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
@@ -299,7 +377,49 @@
     <t>Room was bright, clean, well air conditioned, quiet (even though its on the frontage road of I-10). staff was friendly. Security could see that I couldn't find a parking spot (they were very full) and told me to park in the handicapped spot and let the front desk know. I said I had a lot of expensive gear in my vehicle and he said, don't worry, I'll be here watching all night.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r510273301-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510273301</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took a quick weekend trip with young kids. Hotel was great! Beds were comfy. Pool was even kept open an extra hour the night of our check in which the kids loved. Breakfast was yummy but dining area is tiny so it fills up quick. Overall great stay. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r507245569-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507245569</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Cockroaches!!!</t>
+  </si>
+  <si>
+    <t>I had a very enjoyable stay the first night, excluding the noise from the highway. The room was spacious and the beds were very comfortable. The pool was clean and had a hot tub. The second morning of our stay, my son discovered a dead cockroach on the floor of the breakfast room. I booked this hotel because of the inclusive breakfast and the good reviews but would certainly not have, if I had known there would be cockroaches in the eating area. Staff assured me they had not seen any before and confirmed they removed the roach. I replied that around food, where there's one, there are others. Take this into consideration if booking this hotel for the breakfast!! I would not eat there!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded August 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>I had a very enjoyable stay the first night, excluding the noise from the highway. The room was spacious and the beds were very comfortable. The pool was clean and had a hot tub. The second morning of our stay, my son discovered a dead cockroach on the floor of the breakfast room. I booked this hotel because of the inclusive breakfast and the good reviews but would certainly not have, if I had known there would be cockroaches in the eating area. Staff assured me they had not seen any before and confirmed they removed the roach. I replied that around food, where there's one, there are others. Take this into consideration if booking this hotel for the breakfast!! I would not eat there!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r502918383-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
@@ -317,9 +437,6 @@
     <t>We stayed here over the weekend to attend a party. The hotel is very nice and well kept. The rooms are spacious, comfortable and very well maintained. The beds were very comfortable. The staff is friendly, efficient and accommodating. Breakfast was pretty good, but the breakfast area is a little small and was very crowded. Parking here is challenging at night. It seems like they have more rooms than parking spaces. The night security man was very helpful in getting us a parking spot for the night. We received a great rate for our weekend stay. We would definitely stay here again.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r499535733-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -362,6 +479,42 @@
     <t>The room was very comfortable but you can hear the freeway noise all night.  I was on the top floor and still could hear thr freeway.  I asked to be moved to the other side of the hotel and was told they where all bookede and I could not move.  Did not sleep well the whole trip due to the noiseMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r471160626-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471160626</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Very Happy with Our Stay!</t>
+  </si>
+  <si>
+    <t>This hotel is fantastic!  The staff was super nice.  Our room was newly remodeled and was very functional.  It had a small fridge, microwave, and a one-cup Keurig coffee maker.  We requested a room in the back of the hotel so that we wouldn't hear all the highway noise, and indeed it was pretty quiet. One night we heard some noisy motorcycles in the back parking lot, but that was about it.  Air conditioner worked great.  The only thing we didn't care for was the noisy power toilet flushing.  It was extremely noisy.  The indoor pool was really nice and very warm.  The breakfast buffet was sufficient and had a few choices, including some warm food (scrambled eggs, vegetable omelets, turkey sausage, regular sausage, and cinnamon rolls).  The only fresh fruit they had were apples and bananas.  They have an automatic pancake machine.  Their coffee was pretty good, and they had flavored creamers.  Our first morning the breakfast room was packed, and we had to wait for a table.  The breakfast area is very small and has about nine tables, and they are all very close together.  The back parking lot had some storage units taking up room.  While we were there some of the exits near the hotel were closed due to construction, which made it hard sometimes finding our way back to the hotel.  I found out from the lady at the Front Desk that this hotel is...This hotel is fantastic!  The staff was super nice.  Our room was newly remodeled and was very functional.  It had a small fridge, microwave, and a one-cup Keurig coffee maker.  We requested a room in the back of the hotel so that we wouldn't hear all the highway noise, and indeed it was pretty quiet. One night we heard some noisy motorcycles in the back parking lot, but that was about it.  Air conditioner worked great.  The only thing we didn't care for was the noisy power toilet flushing.  It was extremely noisy.  The indoor pool was really nice and very warm.  The breakfast buffet was sufficient and had a few choices, including some warm food (scrambled eggs, vegetable omelets, turkey sausage, regular sausage, and cinnamon rolls).  The only fresh fruit they had were apples and bananas.  They have an automatic pancake machine.  Their coffee was pretty good, and they had flavored creamers.  Our first morning the breakfast room was packed, and we had to wait for a table.  The breakfast area is very small and has about nine tables, and they are all very close together.  The back parking lot had some storage units taking up room.  While we were there some of the exits near the hotel were closed due to construction, which made it hard sometimes finding our way back to the hotel.  I found out from the lady at the Front Desk that this hotel is used a lot for business travel during the week and families on the weekends.  In the early evening they put out warm cookies or cinnamon rolls in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This hotel is fantastic!  The staff was super nice.  Our room was newly remodeled and was very functional.  It had a small fridge, microwave, and a one-cup Keurig coffee maker.  We requested a room in the back of the hotel so that we wouldn't hear all the highway noise, and indeed it was pretty quiet. One night we heard some noisy motorcycles in the back parking lot, but that was about it.  Air conditioner worked great.  The only thing we didn't care for was the noisy power toilet flushing.  It was extremely noisy.  The indoor pool was really nice and very warm.  The breakfast buffet was sufficient and had a few choices, including some warm food (scrambled eggs, vegetable omelets, turkey sausage, regular sausage, and cinnamon rolls).  The only fresh fruit they had were apples and bananas.  They have an automatic pancake machine.  Their coffee was pretty good, and they had flavored creamers.  Our first morning the breakfast room was packed, and we had to wait for a table.  The breakfast area is very small and has about nine tables, and they are all very close together.  The back parking lot had some storage units taking up room.  While we were there some of the exits near the hotel were closed due to construction, which made it hard sometimes finding our way back to the hotel.  I found out from the lady at the Front Desk that this hotel is...This hotel is fantastic!  The staff was super nice.  Our room was newly remodeled and was very functional.  It had a small fridge, microwave, and a one-cup Keurig coffee maker.  We requested a room in the back of the hotel so that we wouldn't hear all the highway noise, and indeed it was pretty quiet. One night we heard some noisy motorcycles in the back parking lot, but that was about it.  Air conditioner worked great.  The only thing we didn't care for was the noisy power toilet flushing.  It was extremely noisy.  The indoor pool was really nice and very warm.  The breakfast buffet was sufficient and had a few choices, including some warm food (scrambled eggs, vegetable omelets, turkey sausage, regular sausage, and cinnamon rolls).  The only fresh fruit they had were apples and bananas.  They have an automatic pancake machine.  Their coffee was pretty good, and they had flavored creamers.  Our first morning the breakfast room was packed, and we had to wait for a table.  The breakfast area is very small and has about nine tables, and they are all very close together.  The back parking lot had some storage units taking up room.  While we were there some of the exits near the hotel were closed due to construction, which made it hard sometimes finding our way back to the hotel.  I found out from the lady at the Front Desk that this hotel is used a lot for business travel during the week and families on the weekends.  In the early evening they put out warm cookies or cinnamon rolls in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r470859079-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470859079</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Very Friendly, Helpful and Welcoming Staff</t>
+  </si>
+  <si>
+    <t>Hotel is very conveniently located with ample free parking and plenty of places to eat nearby. A short trip down Post Oak and you are in the Galleria area avoiding the freeway. Rooms have been recently refurbished and are cleaned to a high standard. Beds are extremely comfortable and there are plenty of towels supplied. Breakfast is the typical Holiday Express fare but is kept well stocked and clean. What really sets this hotel apart is the friendliness of the staff - it makes all the difference and their helpful and welcoming attitude was much appreciated.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r463093446-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -411,6 +564,51 @@
   </si>
   <si>
     <t>I chaperoned my son's school trip and the class stayed at this hotel.  The hotel was under renovation and I got one of the renovated rooms, which was nice AND big.  The lobby and breakfast area were small but adequate.  The staff was friendly.  The only real complaint I have is the Houston traffic!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r415440938-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415440938</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Sparkling new, tasteful, huge rooms</t>
+  </si>
+  <si>
+    <t>We weren't sure what we'd find on the Beltway, on the way to the coast.  Easy on and off freeway.  Fabulous.  First, the decorator had taste--deep blue with gray throughout.  All rooms are 'suites,' which meant big rooms with a small walk-through kitchen and 2 nice beds.  The linens are extra nice--pillows are even embroidered.  The breakfast was typical but slightly better--fresh fruit, scrambled eggs and flat sausage paddies, and a surprising bowl of walnuts to top (instant) oatmeal.  Our price was $119, but I'm sure that fluctuates like they all do.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r404228079-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404228079</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Adquate but nothing special</t>
+  </si>
+  <si>
+    <t>Older property that could use a refresh..  Room smelled musty upon entry, though not to the point of wanting to change rooms..  A/C and wi-fi worked worked well.  Staff was pleasant, breakfast was fine.  Room directly faced the highway.  Some noise but not awful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Older property that could use a refresh..  Room smelled musty upon entry, though not to the point of wanting to change rooms..  A/C and wi-fi worked worked well.  Staff was pleasant, breakfast was fine.  Room directly faced the highway.  Some noise but not awful.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r395658240-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
@@ -486,6 +684,51 @@
     <t>My mom is legally disabled.  The lady at the front desk would not accept the letter from her Doctor regarding her  Support Animal therefore we had to leave hotel and went to another. We have contacted the hotel multiple times for a response however, they will not respond. We have never had this problem before! =-(#HOLIDAYINN#IHGHOTELSMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r332357829-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332357829</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Reasonable price near to my place of business</t>
+  </si>
+  <si>
+    <t>While in the area for business, I stayed at this hotel as a reasonably priced option for the area.  The hotel staff were very pleasant and strove to meet my needs.  A nice pleasant facility with the same expected experience at a Holiday Inn Express.  A nice difference in the evening in addition to cookies some of the cinnamon buns were available.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r326045613-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326045613</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Good for me!</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 nights last week.  Overall, my stay was very good.  I tried the breakfast on the first day, but I wasn't overly impressed.  My room was a bit stuffy - even with the a/c on.  Those really are my only complaints.  The staff was extremely nice and helpful - from the front desk to the cleaning staff.  I felt welcome, and my room and linens were always clean and tidy.  The entrance from the freeway into the hotel isn't the most intuitive, but it's fine once you understand where you're trying to get to.  For the value, this was certainly a good choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>HIX_Hotel_Mgr, Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 nights last week.  Overall, my stay was very good.  I tried the breakfast on the first day, but I wasn't overly impressed.  My room was a bit stuffy - even with the a/c on.  Those really are my only complaints.  The staff was extremely nice and helpful - from the front desk to the cleaning staff.  I felt welcome, and my room and linens were always clean and tidy.  The entrance from the freeway into the hotel isn't the most intuitive, but it's fine once you understand where you're trying to get to.  For the value, this was certainly a good choice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r325561896-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -501,9 +744,6 @@
     <t>My father stayed here when visiting me from out of town. My sister and children also had another room while visiting on the same weekend from out of town. I was in and out of both rooms over several days. My father's first room was very musty, so he switched rooms. Second room was still musty. If the a/c was kept on 66 degrees (even though it was 59 degrees outside) it was ever-so-slightly-less musty. Sister's room was also extremely musty - the smell comes straight out of the a/c units and is pretty awful. Same thing with the a/c. It seemed clean otherwise and they seemed to think there were good breakfast options, along with unlimited supply of decent coffee available in the lobby. There is a computer and a printer in the lobby if you need to print airline tickets. The kids enjoyed the indoor pool briefly as well. But the musty smell nearly made them look for a room in a different hotel and woke them in the night because it was so strong. If it had been longer than a few nights I'm sure they wouldn't have stayed, and they won't stay there again. Just to recap: that was THREE different rooms on the sixth floor with a horrible musty odor. The hotel is on the side of the highway, so there is some traffic noise as well, but that was to be expected.MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded November 24, 2015</t>
   </si>
   <si>
@@ -549,6 +789,48 @@
     <t>Nice, clean rooms and nice staff... however, the area was a bit sketchy.  We were a little leary to leave our vehicle unattended.  Thankfully, no trouble occurred.  Other than that, it was your typical Holiday Inn.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r311379058-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311379058</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE, MANY CAR BREAK-INS!</t>
+  </si>
+  <si>
+    <t>First off I was "upgraded" to room that had the beds directly behind the elevators. As a Spire Member you think that an upgrade would not be located at the worse/loudest possible spot in the hotel. After getting no sleep I woke up to find that my tailgate was stolen right off the bed of my pickup truck. Keep in mind that I parked directly under the light post in the brightest spot of the back parking lot. The front staff needs to work on being more courteous on how they handle situations like this. Did not feel comforted, felt more like my situation was a nuisance to her. When the police officer came to write report I was shocked with what he had to say. He said that he has been called to that location, and the Crowne Plaza next to them, way too often for vehicle break ins. You think with history like that you would have security on hand to prevent this. Also police stated that they have been difficult to deal with when getting footage from their security system. Even if they provide footage, it would be useless due to the surveillance area the cameras are pointed at. The tailgate of my truck was just off the camera view, how convenient. Unless you want your broken into... DO NOT STAY AT THIS HOTEL OR THE CROWNE PLAZA NEXT TO IT!!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2015</t>
+  </si>
+  <si>
+    <t>First off I was "upgraded" to room that had the beds directly behind the elevators. As a Spire Member you think that an upgrade would not be located at the worse/loudest possible spot in the hotel. After getting no sleep I woke up to find that my tailgate was stolen right off the bed of my pickup truck. Keep in mind that I parked directly under the light post in the brightest spot of the back parking lot. The front staff needs to work on being more courteous on how they handle situations like this. Did not feel comforted, felt more like my situation was a nuisance to her. When the police officer came to write report I was shocked with what he had to say. He said that he has been called to that location, and the Crowne Plaza next to them, way too often for vehicle break ins. You think with history like that you would have security on hand to prevent this. Also police stated that they have been difficult to deal with when getting footage from their security system. Even if they provide footage, it would be useless due to the surveillance area the cameras are pointed at. The tailgate of my truck was just off the camera view, how convenient. Unless you want your broken into... DO NOT STAY AT THIS HOTEL OR THE CROWNE PLAZA NEXT TO IT!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r300944707-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300944707</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Houston Trip</t>
+  </si>
+  <si>
+    <t>Hotel staff was very friendly and welcoming. Room was comfortable. Hotel is convenient to I-10 &amp; 610 and nearby to the Galleria area. Restaurants nearby. Breakfast staff was on top of their job and maintained the area very well. Facility was clean and maintained.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r277924388-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -601,6 +883,51 @@
   </si>
   <si>
     <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r270160559-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270160559</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>It was clean, the staff was terrific, the room was quiet. It's a bit shabby and old,  and it's nothing fancy at all. However it met my needs for a place to stay close to where I needed to do work. Ask for a room on the top floor in the back, otherwise you'll hear the freeway outside. There's nothing to eat near the hotel unless you drive. The best thing was the staff. They are helpful and friendly. The breakfast was better than most places.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>It was clean, the staff was terrific, the room was quiet. It's a bit shabby and old,  and it's nothing fancy at all. However it met my needs for a place to stay close to where I needed to do work. Ask for a room on the top floor in the back, otherwise you'll hear the freeway outside. There's nothing to eat near the hotel unless you drive. The best thing was the staff. They are helpful and friendly. The breakfast was better than most places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r261343532-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261343532</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great location the room was clean along with rest of hotel. Every staff member I had contact with was helpful. This is a great hotel if your in Houston for business or just wants stay in safe area....</t>
+  </si>
+  <si>
+    <t>October 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r251718482-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
@@ -667,6 +994,45 @@
     <t>All around average experience.  Decent common areas.  my room was average but clean.  The wireless internet worked as expected.  It is convenient to the highway.  The breakfast first day was subpar.  my eggs had a hard spot which I hoped was not because it was from a day or two earlier as I was eating at 6:30am which is when they opened.  Breakfast the next day was better.  Workout room small but there is free access to a local LA Fitness if you are so inclined.  No close restaurants but I walked next door to the crown plaza and had a good meal and it has a decent bar.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r238983872-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238983872</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>12323 Katy Freeway Houston, TX 77079oo</t>
+  </si>
+  <si>
+    <t>Two stars for now and here's why: I was very disappointed with this hotel but I received a ca from the GM that the hotel will be remodeled by January 2015.  What was wrong:  very loud A/C unit--had to turn it off just to hear the TV well; broken shower equipment--shower head does not move up just stuck at down; towel hooks were loose/broken; only had one trash can--very inconvenient. PROS: breakfast was consistent; very responsive front desk; updated TV with six HBO channels!  ...so, decor is still the old fashion look, but per GM, this will be updated to a more modern set of furniture by the new year.  I will only recommend this hotel after the upgrade/update.  I hope you find this info usefulMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Two stars for now and here's why: I was very disappointed with this hotel but I received a ca from the GM that the hotel will be remodeled by January 2015.  What was wrong:  very loud A/C unit--had to turn it off just to hear the TV well; broken shower equipment--shower head does not move up just stuck at down; towel hooks were loose/broken; only had one trash can--very inconvenient. PROS: breakfast was consistent; very responsive front desk; updated TV with six HBO channels!  ...so, decor is still the old fashion look, but per GM, this will be updated to a more modern set of furniture by the new year.  I will only recommend this hotel after the upgrade/update.  I hope you find this info usefulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r237888954-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237888954</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>We had our first experience at this hotel last weekend. Visited some friends who were in town for a wedding. Our room was comfortable only downside there was some coffee/coke stains on the bathroom wall below the vanity: maybe a cleaning oversight. The breakfast choices was more than expected, warm cinnamon rolls Yum!  Staff was courteous and professional. We will stay again when we are in the area.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r236597030-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -679,9 +1045,6 @@
     <t>Arrived early (before check in) my room was ready.  PROMPLY helped at front desk.  Hotel is great very clean, very well maintained and very convinently located. Staff is very polite and service oriented.</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r234279793-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -718,6 +1081,51 @@
     <t>We enjoyed our stay here once again. This is the third time we have stayed at this location.It is close to Memorial City Mall &amp; The Galleria. The indoor pool is clean &amp; a nice size. The hot tub is nice too. We enjoyed the free breakfast- pancakes, bacon, scrambled eggs, boiled eggs, biscuits &amp; gravy, warm cinnamon rolls, cereal, muffins, toast, bagels, apples, bananas, juice, chocolate milk &amp; regular milk &amp; yogurt. Coffee 24/7.Nice variety. The suites is extra large having a full size frig, microwave in kitchen area. Table with 4 chairs, recliner, pull out sofa, 2 flat screen tvs,, 2 queen beds, desk, chair &amp; ottoman, closet, large bathroom, &amp; lots of plug ins for phones. The staff was outstanding. Free rollaway, but request them before you arrive. Breakfast ends at  10:30 am. The only thing I can say negative is it could use a fresh coat of paint &amp; touching up a few dings on walls, but nothing major. Suite is located next to the elevator, but is well worth it although you may hear the elevator sometimes. Downstairs was not as cold as the room, but the pool is heated &amp; close to the front desk. Overall we loved it &amp; loved the price!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r225523959-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225523959</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean Hotel</t>
+  </si>
+  <si>
+    <t>This hotel had a friendly team, the rooms are a bit dated but are clean and comfortable. Good location right by the Freeway, the noise was hardly recognisable. Breakfast was always fresh and hot, reasonable selection for an express breakfast. Overall a good hotel for the price range.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>daxgm, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>This hotel had a friendly team, the rooms are a bit dated but are clean and comfortable. Good location right by the Freeway, the noise was hardly recognisable. Breakfast was always fresh and hot, reasonable selection for an express breakfast. Overall a good hotel for the price range.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r217682920-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217682920</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Thank heavens Holiday Inn knows about ADA acessability</t>
+  </si>
+  <si>
+    <t>I had to call this hotel at the last minute as the La Quinta (We previously booked) informed us the night of our arrival that all there ADA rooms were being redone. Holiday Inn was a much more upscale place with a much better room and all things including the pool had a lift for my wife and I who are both wheelchair users. I wish they would turn down the heat in the pool area though it was hot like a suana</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r217351639-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -731,9 +1139,6 @@
   </si>
   <si>
     <t>This hotel had friendly front desk staff, and nice lobby area.  Our room was a bit out dated/aged but clean. Good location close to the freeway.  It was located on the back side of the building, I did not notice freeway noise. Breakfast area was clean and breakfast well maintained.  My granddaughter enjoyed the pancake maker.MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2014</t>
   </si>
   <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded August 8, 2014</t>
@@ -789,9 +1194,6 @@
     <t>Bit out-dated and rough on the edges, but service was good and location was extremely convenient for my travels. Proper gym would be great. All the services were near and convenient. Quite place, even though freeway runs right next to it.MoreShow less</t>
   </si>
   <si>
-    <t>January 2014</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded June 2, 2014</t>
   </si>
   <si>
@@ -801,6 +1203,39 @@
     <t>Bit out-dated and rough on the edges, but service was good and location was extremely convenient for my travels. Proper gym would be great. All the services were near and convenient. Quite place, even though freeway runs right next to it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r199043620-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199043620</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Dated, but good location and service</t>
+  </si>
+  <si>
+    <t>Hotel is located just near junction of 610 and I10 on West side of Houston so provides easy access to West Houston locations. Also means some traffic noise in rooms that face I10. Hotel is clean and well maintained if a little dated. Staff are helpful and friendly. Usual Holiday Inn Express amenities available (ie free breakfast, pool, etc). Bed was very comfy.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r196654415-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196654415</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Just Off the Freeway, Very convenient.</t>
+  </si>
+  <si>
+    <t>If you are heading West on you travels, this hotel is a great location. You're morning traffic is going east into Houston. This Holiday Inn Exp. is just one block back from the freeway but is very quiet.You well enjoy your stay here.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r181379951-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -876,6 +1311,57 @@
     <t>Stayed for the weekend to celebrate my birthday. The rooms were nice, but the mattress were a little too firm, the shower had little to almost no hot water so the shower wasn't very pleasant and to top it all off we stayed on da 6th floor with only one working elevator. Overall it was convenient to downtown and the nightclub we went to. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r177462254-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177462254</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel - Too Close to Freeway</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel 5 nights - but I was on the back side from the freeway - good hotel - good staff.  I came back the  next week and was assigned a room on the freeway side.  Wow - better than Nascar.  I felt I was right beside the racetrack.  They did let me change rooms.  Be sure and ask for a room away from the track.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded October 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel 5 nights - but I was on the back side from the freeway - good hotel - good staff.  I came back the  next week and was assigned a room on the freeway side.  Wow - better than Nascar.  I felt I was right beside the racetrack.  They did let me change rooms.  Be sure and ask for a room away from the track.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r174900367-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174900367</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Front staff is excellent. Clean rooms convenient location to galleria</t>
+  </si>
+  <si>
+    <t>The manager even offered to assist with my bags. We had a great stay.  The breakfast was very good and it was close to the Galleria and downtown. We stayed 4 nights and the staff was very friendly.  We booked again to visit my daughter for Thanksgiving. I was offered an upgrade to a suite since I was going to stay longer. MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded September 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2013</t>
+  </si>
+  <si>
+    <t>The manager even offered to assist with my bags. We had a great stay.  The breakfast was very good and it was close to the Galleria and downtown. We stayed 4 nights and the staff was very friendly.  We booked again to visit my daughter for Thanksgiving. I was offered an upgrade to a suite since I was going to stay longer. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r166074896-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1434,48 @@
     <t>Nothing to get too excited about but it will deliver what's expected. Suites are not quite as spacious as some of the other HIE suites and its location right next to Interstate Highway 10 has is pros and cons. Breakfast is the HIE standard and is managed quite well given the small space it is served up in. It's clean and cleaning staff are friendly and efficient.  A little bit more expensive than what we are used to when 'on the road'. We paid a little over $200 + TAX per night per suite. Bring earplugs if you are a light sleeper.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r157074745-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157074745</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Wonderful staff, warm pool</t>
+  </si>
+  <si>
+    <t>The front desk staff where very friendly and helpful throughout our stay. The breakfast attendant cleared tables for guests and kept all of the food choices stocked. The pool was a good size and had warm water which is a huge plus for me. There was also a hot tub which we enjoyed. The floor in the breakfast area was sticky- not dirty, but the entire area was sticky. We had a room facing the highway and even though there is a lot of road noise we managed to get a good nights sleep. The exit from 610S is currently undergoing construction and we had a hard time getting to the hotel initially.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2013</t>
+  </si>
+  <si>
+    <t>The front desk staff where very friendly and helpful throughout our stay. The breakfast attendant cleared tables for guests and kept all of the food choices stocked. The pool was a good size and had warm water which is a huge plus for me. There was also a hot tub which we enjoyed. The floor in the breakfast area was sticky- not dirty, but the entire area was sticky. We had a room facing the highway and even though there is a lot of road noise we managed to get a good nights sleep. The exit from 610S is currently undergoing construction and we had a hard time getting to the hotel initially.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r157003183-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157003183</t>
+  </si>
+  <si>
+    <t>A little overpriced for the room quality.</t>
+  </si>
+  <si>
+    <t>I needed a hotel near the medical center for meetings.  Most all rooms, save for the very expensive ones, were booked in that area.  I found this hotel at $189/night.  Not great, but no choice.  The hotel itself is clean, desk was friendly.  My room was unfortunately very musty smelling and there was leftover used beverages in the fridge.  It's fine for the location but I will go back to Hampton on my next trip to this area of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a hotel near the medical center for meetings.  Most all rooms, save for the very expensive ones, were booked in that area.  I found this hotel at $189/night.  Not great, but no choice.  The hotel itself is clean, desk was friendly.  My room was unfortunately very musty smelling and there was leftover used beverages in the fridge.  It's fine for the location but I will go back to Hampton on my next trip to this area of Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r156783467-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1548,57 @@
     <t>After seeing the reviews from others, I made sure to get a room on the back side of the hotel. While I didn't hear the highway traffic, I had a bright light right outside my room which was annoying. Also, the air conditioner never turned off. To keep the room cool, you would hear the loud AC all night. If you turn it off, it's stuff and hot. The insulation between the rooms is non-existant as not only could I hear the people above me walking around, I could hear the people on one side of me every time they used the bathroom. The bed and pillows were horrible. I have a pain in my neck from trying to find a comfortable position with these pillows. I travel almost every week and I am used to sleeping on different styles of beds and pillows and can adjust very easily but not here. I was supposed to stay 2 nights but cut it short to one because of the horrible conditions with the bed, AC and noise. The furniture was in good condition and the front desk woman was pleasant...the hotel stay was just not restful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r152518577-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152518577</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Close to the freeway, pro and con</t>
+  </si>
+  <si>
+    <t>Other than the location, I had no problem with my stay at this hotel. Good price, breakfast was not bad, and the rooms were clean. Can't ask for much more than that. My parents enjoyed their stay here, as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Other than the location, I had no problem with my stay at this hotel. Good price, breakfast was not bad, and the rooms were clean. Can't ask for much more than that. My parents enjoyed their stay here, as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r151027173-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151027173</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Good hotel, parking lot lighting lit up my room all night</t>
+  </si>
+  <si>
+    <t>The hotel was good.  It was clean and staff was friendly. I was happy to see how brightly lit the parking lot was until I realized that placement and brightness of the lighting affected my sleep.  The large amount of light seeping in around the curtains made it look that the sun had risen and negatively affected my sleep.  I was on the 3rd floor, north side of the hallway, 3 or 4 rooms from the west end of the building.  This made me downgrade from a 4 to a 3 in the rating. Other people with my company who stayed there did not have this issue.  It must have been the placement of my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>C_MaddenHouston, Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded February 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was good.  It was clean and staff was friendly. I was happy to see how brightly lit the parking lot was until I realized that placement and brightness of the lighting affected my sleep.  The large amount of light seeping in around the curtains made it look that the sun had risen and negatively affected my sleep.  I was on the 3rd floor, north side of the hallway, 3 or 4 rooms from the west end of the building.  This made me downgrade from a 4 to a 3 in the rating. Other people with my company who stayed there did not have this issue.  It must have been the placement of my room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r150740288-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1035,15 +1614,6 @@
     <t>Centrally located and convenient location just off the Katy Freeway.  Prices are reasonable considering the location.  It is easy to get to local attractions. Memorial Park is a 10-15 minute walk, or a 5 minute drive, away, which is plus--a great place to go for a run.  Staff was very friendly and helpful.  There is a LA Fitness across the street you can use for free as a hotel guest--a nice feature not advertised on the hotel website.  The availability of guest washers and dryers on the 3rd and 5th floor is also a helpful convenience.Negatives:  not much in the way of dining options within walking distance, unless you like Jack in the Box.   Even though my room was on the top floor of the hotel, I could hear freeway traffic throughout the night.MoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
-    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded March 15, 2013</t>
-  </si>
-  <si>
-    <t>Responded March 15, 2013</t>
-  </si>
-  <si>
     <t>Centrally located and convenient location just off the Katy Freeway.  Prices are reasonable considering the location.  It is easy to get to local attractions. Memorial Park is a 10-15 minute walk, or a 5 minute drive, away, which is plus--a great place to go for a run.  Staff was very friendly and helpful.  There is a LA Fitness across the street you can use for free as a hotel guest--a nice feature not advertised on the hotel website.  The availability of guest washers and dryers on the 3rd and 5th floor is also a helpful convenience.Negatives:  not much in the way of dining options within walking distance, unless you like Jack in the Box.   Even though my room was on the top floor of the hotel, I could hear freeway traffic throughout the night.More</t>
   </si>
   <si>
@@ -1095,6 +1665,39 @@
     <t>The convenient location comes with a price - IH 10 (aka Katy Frwy) has traffic noise 24/7 so I highly recommend packing some earplugs.  In addition, the walls (and floors) are not very sound proof, and they have some kind of power-assist toilet flush that is extremely loud - even through earplugs!  I was disappointed that during our entire 5-day stay over Thanksgiving weekend the pool was "out-of-service"; the adjacent workout work was stifling hot and unusable, and then the NBC Channel did not have sound ("a problem with their cable supplier").  It would be nice if they had the HGTV channel in addition (or instead of) the 4 ESPN and Speed channels.  There is a strong room freshener smell in the 5th floor hall that could be a problem for those with respiratory ailments.Most of the staff was friendly and the free breakfast was decent. We'll probably stay there again but next time I'll ask in advance about hotel amenity issues.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r145742807-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145742807</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Very friendly staff.</t>
+  </si>
+  <si>
+    <t>I felt very welcome at this hotel and the staff was very friendly.  Lovette, the front desk clerk was especially helpful and made this stay worth writing a review about.  The indoor pool was nice and warm and the bed comfortable.  Not to mention, I ate a cinnamon roll every morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>I felt very welcome at this hotel and the staff was very friendly.  Lovette, the front desk clerk was especially helpful and made this stay worth writing a review about.  The indoor pool was nice and warm and the bed comfortable.  Not to mention, I ate a cinnamon roll every morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r145695109-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145695109</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>The staff was friendly and helpful and they gave us a very early check-in which we appreciated.The room was spacious and clean. The bed was comfortable. The decor is a little dated, but very adequate. The heater and toilet were noisy. The worse problem was a barking dog in a nearby room, but I suppose that is not the hotel's fault :( The breakfast was hot-- the standard HI Express fare. (I love their pancakes.) Overall, it was a comfortable place to stay overnight.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r143892676-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1761,54 @@
     <t>The hotel is located right on interstate 10, which means that you can hear noise from the highway. The location is OK, close to downtown Houston. The rooms are not too renovated, as the furniture is dated. Also, the hallways and rooms feel quite stuffy and dirty. Overall, the hotel is not clean. The breakfast is good, with cinnamon rolls, eggs, ham, etc. I would try a different hotel next time I visit Houston. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r135663240-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135663240</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Never staying hee again</t>
+  </si>
+  <si>
+    <t>I love Holiday Inn Express hotels but I never will stay in this one again.  Pros: close to attractions (movie theatre, club, restaurants, shopping); free breakfast; pass to LA Fitness gym across the highway; staff was amicableCons: Right in front of I-10 freeway so horrible view; not a lot of families; parking lot was small and inconvenient for big truck parking; bad lighting in parking lot - I did not feel safe; could use some updates - hallways and bathrooms were dated and stuffyMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded August 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2012</t>
+  </si>
+  <si>
+    <t>I love Holiday Inn Express hotels but I never will stay in this one again.  Pros: close to attractions (movie theatre, club, restaurants, shopping); free breakfast; pass to LA Fitness gym across the highway; staff was amicableCons: Right in front of I-10 freeway so horrible view; not a lot of families; parking lot was small and inconvenient for big truck parking; bad lighting in parking lot - I did not feel safe; could use some updates - hallways and bathrooms were dated and stuffyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r135501804-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135501804</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>...at least we slept ok.</t>
+  </si>
+  <si>
+    <t>Our one night stay was a little disappointing.  The room had a musty odor and the source of that smell seemed to be the damp carpet... In fact the whole room had a damp feel.  We called the front desk to make them aware and get another room only to be informed that the property was sold out.  It was after 11PM. We were stuck.  The next morning, to prove out point we brought the receipt (slipped under the door during night) to the front desk and presented the clerk with a limp sheet of paper.  "Yep, the room must be damp..."  For this we were given some reward vouchers to re-imburse some of the reward points I spent on the room (30% to be exact). At least we got something.  They filled out a maintenance ticket while we were watching, so hopefully this will be addressed.  ...hopefully... We also saw a portable de-humidifier running in the hallway down from our room, so this may be more wide spread than just room 611.If you choose to stay here anyway, be sure to get your breakfast early.  There was little left when we got to it.  And the stiff crust on the eggs suggested it had been there a while.MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded August 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2012</t>
+  </si>
+  <si>
+    <t>Our one night stay was a little disappointing.  The room had a musty odor and the source of that smell seemed to be the damp carpet... In fact the whole room had a damp feel.  We called the front desk to make them aware and get another room only to be informed that the property was sold out.  It was after 11PM. We were stuck.  The next morning, to prove out point we brought the receipt (slipped under the door during night) to the front desk and presented the clerk with a limp sheet of paper.  "Yep, the room must be damp..."  For this we were given some reward vouchers to re-imburse some of the reward points I spent on the room (30% to be exact). At least we got something.  They filled out a maintenance ticket while we were watching, so hopefully this will be addressed.  ...hopefully... We also saw a portable de-humidifier running in the hallway down from our room, so this may be more wide spread than just room 611.If you choose to stay here anyway, be sure to get your breakfast early.  There was little left when we got to it.  And the stiff crust on the eggs suggested it had been there a while.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r133735225-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1872,48 @@
     <t>This hotel was conveniently located off the freeway.  The rooms were well maintained and the front desk was very attentive.   The breakfast staff kept pace with the crowd and was clean.  The parking area was large enough to handle the number of guests and safe.  I did not use the pool but it looked well maintained.  This was my second stay at this hotel and I will gladly stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r130802561-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130802561</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>May 22 stay</t>
+  </si>
+  <si>
+    <t>Normally, my stay here is great but this time due to the room I had it was less than desirable.  I had room 215 and the noise comming from the mechanical room next door was non stop.  It would wind down and start up again like an airplane engine.  Then it would just run constantly.  I had to take a sleeping pill to get any sleep.  Next time I will go somewhere else rather than have to sleep in that room.  I cannot believe something cannot be done to stop the noise.  I come down to Houston every couple of months now and this Hotel is close to our office so I would like to continue to stay there.Hope something is done.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2012</t>
+  </si>
+  <si>
+    <t>Normally, my stay here is great but this time due to the room I had it was less than desirable.  I had room 215 and the noise comming from the mechanical room next door was non stop.  It would wind down and start up again like an airplane engine.  Then it would just run constantly.  I had to take a sleeping pill to get any sleep.  Next time I will go somewhere else rather than have to sleep in that room.  I cannot believe something cannot be done to stop the noise.  I come down to Houston every couple of months now and this Hotel is close to our office so I would like to continue to stay there.Hope something is done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r130375041-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130375041</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>Definition of customer service</t>
+  </si>
+  <si>
+    <t>Have stayed at several HI Exp: Jacksonville, Florida, San Francisco and Houston. All have been good. This  Houston property exceeded expectations. Every staff member was professional, pleasant, helpful and went out of their way to make sure we received excellent service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed at several HI Exp: Jacksonville, Florida, San Francisco and Houston. All have been good. This  Houston property exceeded expectations. Every staff member was professional, pleasant, helpful and went out of their way to make sure we received excellent service.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r129959684-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1968,57 @@
     <t>Staff very friendly &amp; helpful , front desk went out of their way to accommodate me at check in. Rooms about what expected at HI Express clean nice, AC not working that well but ok. Great location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r127655659-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127655659</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Pleasant place, well located</t>
+  </si>
+  <si>
+    <t>I've stayed here on numerous occasions on business trips to Houston.  Invariably the front desk staff are welcoming and interested, the rooms are spacious with a decent bathroom and effective air-conditioning for those hot summer temperatures!  In addition to expected coffee machine, you get a microwave and fridge - useful if you are planning on staying more than a couple of nights.It's a Holiday Inn Express so you don't get much in terms of facilities, though there is a pool and small gym &amp; I was told I could use the gym on the other side of the freeway too.  Near that gym  are a few decent restaurants and cafes to make up for the lack of dining in the hotel itself, along with cinema, bowling alley etc.  Very convenient.  There is a breakfast area in the hotel, though food is very basic (muffins, pre-processed egg products etc.) eaten off styrofoam plates with plastic cutlery, but the attendant there is very charming.The hotel is right on the Katy Freeway, which is great for getting out &amp; about - the Galleria is about 10 drive minutes away, for example.  Note that if you are a visitor to Houston, you will need a car - the area is pedestrian hostile!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed here on numerous occasions on business trips to Houston.  Invariably the front desk staff are welcoming and interested, the rooms are spacious with a decent bathroom and effective air-conditioning for those hot summer temperatures!  In addition to expected coffee machine, you get a microwave and fridge - useful if you are planning on staying more than a couple of nights.It's a Holiday Inn Express so you don't get much in terms of facilities, though there is a pool and small gym &amp; I was told I could use the gym on the other side of the freeway too.  Near that gym  are a few decent restaurants and cafes to make up for the lack of dining in the hotel itself, along with cinema, bowling alley etc.  Very convenient.  There is a breakfast area in the hotel, though food is very basic (muffins, pre-processed egg products etc.) eaten off styrofoam plates with plastic cutlery, but the attendant there is very charming.The hotel is right on the Katy Freeway, which is great for getting out &amp; about - the Galleria is about 10 drive minutes away, for example.  Note that if you are a visitor to Houston, you will need a car - the area is pedestrian hostile!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r127163404-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127163404</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Fabulous staff, great service, very nice rooms (microwave and refrigerator), incredible breakfast and no noise from the freeway.  The location is both wonderful and difficult.  It is fairly central and you can move around the city and area from a number of freeways.  It is a little difficult in terms of getting off and on the freeway...very busy freeway and usually had to get across several lanes rapidly to make the appropriate exit.  My advice would be to try to arrive and leave at non-rush hour times.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded May 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2012</t>
+  </si>
+  <si>
+    <t>Fabulous staff, great service, very nice rooms (microwave and refrigerator), incredible breakfast and no noise from the freeway.  The location is both wonderful and difficult.  It is fairly central and you can move around the city and area from a number of freeways.  It is a little difficult in terms of getting off and on the freeway...very busy freeway and usually had to get across several lanes rapidly to make the appropriate exit.  My advice would be to try to arrive and leave at non-rush hour times.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r126976716-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1290,15 +2034,6 @@
     <t>I stay here most of the times i come to Houston, the other times i stay at another H/I simply because it puts me closer to my clients. This Hotel is very Central close to hundreds of restaurants, mall, entartainment. The staffg is incredible and will bend over backwards to take care of you, when at the Hotel say hi to Eddie the Manager tell them Luis sent you, this man will do anything to make sure you have the best stay ever, There is only one person that comes across as not caring and she only deals with the meeting, but luckuly you may never see her. Stay here you will love the staff, management and location, ohh and they also serve hot chocolate chips cookies every afternoon which is kind of nice to have as a snack after returning from work.MoreShow less</t>
   </si>
   <si>
-    <t>March 2012</t>
-  </si>
-  <si>
-    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded May 16, 2012</t>
-  </si>
-  <si>
-    <t>Responded May 16, 2012</t>
-  </si>
-  <si>
     <t>I stay here most of the times i come to Houston, the other times i stay at another H/I simply because it puts me closer to my clients. This Hotel is very Central close to hundreds of restaurants, mall, entartainment. The staffg is incredible and will bend over backwards to take care of you, when at the Hotel say hi to Eddie the Manager tell them Luis sent you, this man will do anything to make sure you have the best stay ever, There is only one person that comes across as not caring and she only deals with the meeting, but luckuly you may never see her. Stay here you will love the staff, management and location, ohh and they also serve hot chocolate chips cookies every afternoon which is kind of nice to have as a snack after returning from work.More</t>
   </si>
   <si>
@@ -1345,6 +2080,54 @@
   </si>
   <si>
     <t>We stayed one night while in town helping my son move.  I'm very particular about hotels.  We found this hotel to have a very accomodating and friendly front desk.  Rooms were clean and comfortable.  There have been a few reviews about this particular area of Houston, which is actually a very nice, older part of Houston with many shops and restaurants  nearby.  Would definitely stay here again next time we're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r125093997-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125093997</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Very accomodating</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this Holiday Inn Express for a weekend recently.  I used reward points for the stay (a much better value at this hotel than most that I have seen). We were upgraded to a suite (bedroom with separate living room). The staff was helpful and happy, and the breakfast was great for a family with young children.  We enjoyed the indoor pool both days. The hotel is in a great location very near to the galleria and downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded February 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2012</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this Holiday Inn Express for a weekend recently.  I used reward points for the stay (a much better value at this hotel than most that I have seen). We were upgraded to a suite (bedroom with separate living room). The staff was helpful and happy, and the breakfast was great for a family with young children.  We enjoyed the indoor pool both days. The hotel is in a great location very near to the galleria and downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r124009741-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124009741</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>Location good for traveling through Houston</t>
+  </si>
+  <si>
+    <t>We chose this Holiday Inn Express for it's location on our drive through Houston.  It is right next to the freeway and as we had a room on the back of the hotel, the noise did not bother us at all.  Check in staff was very wecoming, the room was clean, and the decor very nice.  The down side, our room was very noisy. Whenever the water was used in the adjoining room, the plumbing made a thumping sound.  Also, the mattress was very, very firm and the pillows were quite lumpy. The breakfast was so-so.  Coffee was delicious, the eggs crusted on top and watery throughout, bacon was over done, and the bananas were bruised and mushy.  They also offer a selection of bagels, muffins, signature cinnamon rolls, yogurt, pancakes and a variety of cereal which are all very good.  Some reviews stated that the neighborhood was questionable.  We were hesitant but when we arrived there just wasn't anything to be concerned about.  So there are good and not so good features of this hotel.  Although we love Holiday Inn Express, we would chose another place to stay the next time we are traveling through town.MoreShow less</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded February 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2012</t>
+  </si>
+  <si>
+    <t>We chose this Holiday Inn Express for it's location on our drive through Houston.  It is right next to the freeway and as we had a room on the back of the hotel, the noise did not bother us at all.  Check in staff was very wecoming, the room was clean, and the decor very nice.  The down side, our room was very noisy. Whenever the water was used in the adjoining room, the plumbing made a thumping sound.  Also, the mattress was very, very firm and the pillows were quite lumpy. The breakfast was so-so.  Coffee was delicious, the eggs crusted on top and watery throughout, bacon was over done, and the bananas were bruised and mushy.  They also offer a selection of bagels, muffins, signature cinnamon rolls, yogurt, pancakes and a variety of cereal which are all very good.  Some reviews stated that the neighborhood was questionable.  We were hesitant but when we arrived there just wasn't anything to be concerned about.  So there are good and not so good features of this hotel.  Although we love Holiday Inn Express, we would chose another place to stay the next time we are traveling through town.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r123540157-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
@@ -1389,9 +2172,6 @@
 All in all, we really...We just got back from a 2-night stay at this hotel. The check-in staff was fantastic and made sure our stay was a good one. We chose this hotel for the location, since it offered convenient access to downtown, port of Houston and the Galleria, without the inflated prices.As at other Holiday Inn Express hotels, the breakfast is complementary. This is a nice perk, especially when traveling with family, as we were. Parking is also free here, an advantage over staying in other locations in Houston. As another reviewer pointed out, some of the immediate area around the hotel is a bit sketchy (although there are mansions just a few blocks away), but we didn't have any problems with security.The first night we stayed in a double-queen room. I had requested a rollaway bed, but found out at check-in that it wasn't allowed in that size of room because of the fire code. That made for a tight sleep for our family of 5, although fortunately the youngest is small enough to not take up much room yet. The next night we were able to upgrade to a suite, which was _definitely_ worth the extra $10/night. It was _huge_ compared to the first. This room had a double-queen in the bedroom, a very nice sized bathroom, a separate living area with a sleeper sofa and a dining table, and a nicely appointed kitchenette.All in all, we really enjoyed our stay at this hotel and will definitely stay here again (in the suite!) next time we're in Houston.MoreShow less</t>
   </si>
   <si>
-    <t>January 2012</t>
-  </si>
-  <si>
     <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded January 18, 2012</t>
   </si>
   <si>
@@ -1425,6 +2205,39 @@
     <t>I spent just one night here and did not linger the next day. That being said, the rooms were clean and comfortable. The staff was very friendly and helpful.  The free wireless worked great and there was a good choice for breakfast. The only negative is that the hotel is very close to the highway. It's convenient, but there was some highway noise.  We had turned off the heater/ AC unit which may have helped mask the noise a bit, but I think it still would have been noticeable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r119746561-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119746561</t>
+  </si>
+  <si>
+    <t>10/26/2011</t>
+  </si>
+  <si>
+    <t>Im Home!</t>
+  </si>
+  <si>
+    <t>Great place to stay while traveling through Houston.  People are very friendly and courteous and always willing to point you in the right direction.  Place is very clean and rooms are spacious.  When you stay, you can enjoy the facilities from the LA FITNESS Gym accross the street at no charge.   Again, great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay while traveling through Houston.  People are very friendly and courteous and always willing to point you in the right direction.  Place is very clean and rooms are spacious.  When you stay, you can enjoy the facilities from the LA FITNESS Gym accross the street at no charge.   Again, great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r117729465-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117729465</t>
+  </si>
+  <si>
+    <t>09/05/2011</t>
+  </si>
+  <si>
+    <t>Loved it! Loved pool! Great staff!Awesome suites!</t>
+  </si>
+  <si>
+    <t>Nice hotel. Pool &amp; ht tub are same size as any other hotel . It was clean well kept! Nice breakfast with plenty to choose hot &amp; cold! Coffee available day and night! The suites are so large, better than other hotel suites I've stayed in. Close to Memorial city mall &amp; lots of shopping. IMAX &amp; improv across interstate! Loved it!!!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r116391833-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1486,6 +2299,60 @@
   </si>
   <si>
     <t>Awesome hotel! Clean Pool and hot tub. Beds were great and no smoke or mildew. Staff was very professional and knowledgeable of roads and destinations. It is close to the Marquee on I-10 and Memorial Park. No complaints here.- The computer needs to be reformatted in the lobby. I had trouble checking facebook and email because of all the spyware and possible viruses.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r96584026-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>96584026</t>
+  </si>
+  <si>
+    <t>02/14/2011</t>
+  </si>
+  <si>
+    <t>Nice staff nice facilities but smell of Houston dampness in room.</t>
+  </si>
+  <si>
+    <t>Nice reception, nice indoor pool that my grandsons loved along with a nice continental brkft.  This location happened to be very convenient for us.  We were granted an early check in and that helped with our busy schedule.  I left my phone charger in our room and it was promptly mailed to me.  The only concern was the feeling of dampness in my room as I tried to sleep.....maybe the Houston humidity?????MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded April 13, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2011</t>
+  </si>
+  <si>
+    <t>Nice reception, nice indoor pool that my grandsons loved along with a nice continental brkft.  This location happened to be very convenient for us.  We were granted an early check in and that helped with our busy schedule.  I left my phone charger in our room and it was promptly mailed to me.  The only concern was the feeling of dampness in my room as I tried to sleep.....maybe the Houston humidity?????More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r28274642-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>28274642</t>
+  </si>
+  <si>
+    <t>04/18/2009</t>
+  </si>
+  <si>
+    <t>OK in spite of poor location</t>
+  </si>
+  <si>
+    <t>We were initially reluctant to check in here.  The neighborhood is not so good, and parking lot signs warned of theft.  However, we went ahead and were glad we did.  The rooms were clean.  The clientele were primarily families or retirees like us. We settled for fast food at the joint next door that evening but had a nice continental breakfast at the motel the next morning.  One caution.  You'll be driving directly into the sun if going west on the interstate in late afternoon.  This made it impossible for us to read the highway exit signs.  We missed the right exit on this account but were lucky in finding the motel from the next exit.  One more caution: On the map it looks as if this motel is on the edge of Houston.  Actually it is well inside and subject to rush hour traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>edgarcia79, General Manager at Holiday Inn Express &amp; Suites Houston - Memorial Park Area, responded to this reviewResponded June 19, 2009</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2009</t>
+  </si>
+  <si>
+    <t>We were initially reluctant to check in here.  The neighborhood is not so good, and parking lot signs warned of theft.  However, we went ahead and were glad we did.  The rooms were clean.  The clientele were primarily families or retirees like us. We settled for fast food at the joint next door that evening but had a nice continental breakfast at the motel the next morning.  One caution.  You'll be driving directly into the sun if going west on the interstate in late afternoon.  This made it impossible for us to read the highway exit signs.  We missed the right exit on this account but were lucky in finding the motel from the next exit.  One more caution: On the map it looks as if this motel is on the edge of Houston.  Actually it is well inside and subject to rush hour traffic.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r5932317-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
@@ -1538,6 +2405,24 @@
     <t>The first night was a nightmare in the morning. Water was running through the ceiling into the room as we took a shower and the toilet was also running over at the same time so I had to stand on the tub and jump over the stinky water into the part of the room but when I hit the seemingly dry carpet it splashed everywhere because it wasn`t just in the bathroom but soaking under the carpet in the other room and also got on some of my clothes that were touching the floor...yuk I washed my feet in the sink and then stepped in it again because it was running under the carpet. I washed again, got my shoes on right away, called the front desk and started gathering my things.
 They gave us another room and thought it was funny how we "went swimming".  The other two nights were ok  exept for the carpet needed cleaning and was kind of gummy/gritty feeling under my feet...so I put my shoes back on. 
 The breakfast lobby looked really nice, the food was fresh and good coffee as well. The fitness/laundry room has coin laundry machines, one fitness machine with a pulldown, a rickety wobbly ski type machine, a bike and a decent treadmill but the key was missing so I folded up some paper for a key to get the treadmill to work.  It proved to be a really nice...The first night was a nightmare in the morning. Water was running through the ceiling into the room as we took a shower and the toilet was also running over at the same time so I had to stand on the tub and jump over the stinky water into the part of the room but when I hit the seemingly dry carpet it splashed everywhere because it wasn`t just in the bathroom but soaking under the carpet in the other room and also got on some of my clothes that were touching the floor...yuk I washed my feet in the sink and then stepped in it again because it was running under the carpet. I washed again, got my shoes on right away, called the front desk and started gathering my things.They gave us another room and thought it was funny how we "went swimming".  The other two nights were ok  exept for the carpet needed cleaning and was kind of gummy/gritty feeling under my feet...so I put my shoes back on. The breakfast lobby looked really nice, the food was fresh and good coffee as well. The fitness/laundry room has coin laundry machines, one fitness machine with a pulldown, a rickety wobbly ski type machine, a bike and a decent treadmill but the key was missing so I folded up some paper for a key to get the treadmill to work.  It proved to be a really nice treadmill and I did like the treadmill.I realize this kind of thing can happen anywhere but they did not give us any compensation for the maintenance problem fiasco of any sort.  No free night, no reduced priced nothing. It was a 90 something dollar "swim" for that first night and the other two nights were fine exept for the carpet which I tolerated because I was tired and did not want to move our stuff again. Overall the stay at the motel would have been better had they had compensated us for the bad room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d268145-r3091990-Holiday_Inn_Express_Suites_Houston_Memorial_Park_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3091990</t>
+  </si>
+  <si>
+    <t>01/27/2005</t>
+  </si>
+  <si>
+    <t>Stay FAR, FAR away!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel last night. We were driving thru Houston on our honeymoon. We stayed at this hotel only because every other hotel in the area was booked for the night. On the outside this hotel seemed ok, and even on the inside of the lobby we were fairly impressed. Then we walked into the room. I have never smelled such stench in a hotel room. First it was supposed to be a non-smoking room, it wasn't. The room reeked of cigarette smoke and other unidentifiable smells. I had to use my own perfume to spray in the room just to sleep, there wasn't even a way to vent the room to the outside. There was a huge wad of toilet paper and chewing gum in the toilet. Besides the smell, the room was otherwise nice looking. The bed was fairly comfortable but when we called down to get an extra pillow we were told, NO no pillows since no one had done laundry that day! There was a continental breakfast offered, but after spending the night in that room, I sure didn't want to eat any of the food. For the price we paid at this hotel we were very disappointed. I will bypass this hotel and even this entire chain next time I travel that way!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel last night. We were driving thru Houston on our honeymoon. We stayed at this hotel only because every other hotel in the area was booked for the night. On the outside this hotel seemed ok, and even on the inside of the lobby we were fairly impressed. Then we walked into the room. I have never smelled such stench in a hotel room. First it was supposed to be a non-smoking room, it wasn't. The room reeked of cigarette smoke and other unidentifiable smells. I had to use my own perfume to spray in the room just to sleep, there wasn't even a way to vent the room to the outside. There was a huge wad of toilet paper and chewing gum in the toilet. Besides the smell, the room was otherwise nice looking. The bed was fairly comfortable but when we called down to get an extra pillow we were told, NO no pillows since no one had done laundry that day! There was a continental breakfast offered, but after spending the night in that room, I sure didn't want to eat any of the food. For the price we paid at this hotel we were very disappointed. I will bypass this hotel and even this entire chain next time I travel that way!More</t>
   </si>
 </sst>
 </file>
@@ -2083,13 +2968,9 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2133,7 +3014,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -2141,15 +3022,17 @@
       <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2194,31 +3077,31 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -2234,52 +3117,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
       <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" t="s">
-        <v>77</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -2295,58 +3178,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
         <v>80</v>
       </c>
-      <c r="J6" t="s">
+      <c r="X6" t="s">
         <v>81</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Y6" t="s">
         <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -2362,54 +3239,56 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -2425,34 +3304,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>93</v>
       </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2463,8 +3342,12 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
       <c r="Y8" t="s">
         <v>96</v>
       </c>
@@ -2482,34 +3365,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>98</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>99</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>100</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>101</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
         <v>102</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s">
-        <v>91</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2520,10 +3403,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2539,7 +3426,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2548,43 +3435,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
         <v>110</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -2624,17 +3517,23 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -2657,34 +3556,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>118</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>119</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>120</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>121</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>122</v>
       </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
-      </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2698,7 +3597,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -2714,52 +3613,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>124</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>125</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>126</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>127</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>128</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>123</v>
-      </c>
       <c r="O13" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -2775,7 +3674,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2784,22 +3683,26 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2809,12 +3712,8 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>134</v>
-      </c>
-      <c r="X14" t="s">
-        <v>135</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
         <v>136</v>
       </c>
@@ -2853,10 +3752,10 @@
         <v>141</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
         <v>60</v>
@@ -2889,58 +3788,52 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>143</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>144</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>145</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>146</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>147</v>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>148</v>
-      </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
         <v>149</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>150</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -2956,58 +3849,52 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>152</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>153</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>154</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>155</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>156</v>
       </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>157</v>
-      </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>158</v>
-      </c>
-      <c r="X17" t="s">
-        <v>159</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
@@ -3023,46 +3910,46 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
         <v>161</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>162</v>
       </c>
-      <c r="J18" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" t="s">
-        <v>165</v>
-      </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3070,7 +3957,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
@@ -3086,52 +3973,48 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>168</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" t="s">
-        <v>171</v>
-      </c>
-      <c r="L19" t="s">
-        <v>172</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>166</v>
-      </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -3147,34 +4030,34 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
         <v>173</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>174</v>
       </c>
-      <c r="J20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" t="s">
-        <v>176</v>
-      </c>
-      <c r="L20" t="s">
-        <v>177</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>178</v>
-      </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3188,7 +4071,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
@@ -3204,46 +4087,44 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
         <v>179</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21" t="s">
-        <v>181</v>
-      </c>
-      <c r="K21" t="s">
-        <v>182</v>
-      </c>
-      <c r="L21" t="s">
-        <v>183</v>
-      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3251,7 +4132,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -3267,31 +4148,31 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>185</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J22" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22" t="s">
-        <v>188</v>
-      </c>
-      <c r="L22" t="s">
-        <v>189</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>190</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
@@ -3314,7 +4195,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
@@ -3330,52 +4211,58 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
         <v>191</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>192</v>
-      </c>
-      <c r="J23" t="s">
-        <v>193</v>
-      </c>
-      <c r="K23" t="s">
-        <v>194</v>
-      </c>
-      <c r="L23" t="s">
-        <v>195</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>196</v>
-      </c>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s">
+        <v>193</v>
+      </c>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
@@ -3391,50 +4278,46 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
         <v>198</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>199</v>
       </c>
-      <c r="J24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K24" t="s">
-        <v>201</v>
-      </c>
-      <c r="L24" t="s">
-        <v>202</v>
-      </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>184</v>
-      </c>
-      <c r="O24" t="s">
-        <v>60</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
       <c r="Y24" t="s">
         <v>202</v>
       </c>
@@ -3473,41 +4356,27 @@
         <v>207</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>208</v>
-      </c>
-      <c r="X25" t="s">
-        <v>209</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
@@ -3523,48 +4392,58 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
         <v>211</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>212</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>213</v>
       </c>
-      <c r="K26" t="s">
-        <v>188</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>214</v>
       </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>215</v>
-      </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X26" t="s">
+        <v>216</v>
+      </c>
       <c r="Y26" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
@@ -3580,7 +4459,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3589,38 +4468,32 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3631,7 +4504,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
@@ -3647,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3656,31 +4529,33 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3689,10 +4564,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>230</v>
+      </c>
+      <c r="X28" t="s">
+        <v>231</v>
+      </c>
       <c r="Y28" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
@@ -3708,7 +4587,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3717,49 +4596,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" t="n">
+        <v>111</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
         <v>3</v>
       </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="X29" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Y29" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
@@ -3775,7 +4654,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3784,41 +4663,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3826,7 +4701,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
@@ -3842,7 +4717,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3851,51 +4726,41 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>246</v>
-      </c>
-      <c r="K31" t="s">
-        <v>247</v>
-      </c>
-      <c r="L31" t="s">
-        <v>248</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>249</v>
       </c>
       <c r="O31" t="s">
         <v>60</v>
       </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>250</v>
-      </c>
-      <c r="X31" t="s">
-        <v>251</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
         <v>252</v>
       </c>
@@ -3934,41 +4799,37 @@
         <v>257</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>258</v>
+      </c>
+      <c r="X32" t="s">
         <v>259</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>260</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="33">
@@ -3984,46 +4845,42 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
         <v>262</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>263</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>264</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>265</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>266</v>
       </c>
-      <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="s">
-        <v>258</v>
-      </c>
       <c r="O33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -4032,14 +4889,10 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>267</v>
-      </c>
-      <c r="X33" t="s">
-        <v>268</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
@@ -4055,58 +4908,48 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" t="s">
         <v>270</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>271</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>272</v>
       </c>
-      <c r="K34" t="s">
-        <v>273</v>
-      </c>
-      <c r="L34" t="s">
-        <v>274</v>
-      </c>
-      <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>3</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>275</v>
-      </c>
-      <c r="X34" t="s">
-        <v>276</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
@@ -4122,43 +4965,39 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>278</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>279</v>
-      </c>
-      <c r="J35" t="s">
-        <v>280</v>
-      </c>
-      <c r="K35" t="s">
-        <v>281</v>
-      </c>
-      <c r="L35" t="s">
-        <v>282</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>283</v>
-      </c>
       <c r="O35" t="s">
-        <v>85</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4170,14 +5009,10 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>284</v>
-      </c>
-      <c r="X35" t="s">
-        <v>285</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
@@ -4193,7 +5028,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4202,38 +5037,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K36" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
         <v>5</v>
       </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4241,14 +5072,10 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>292</v>
-      </c>
-      <c r="X36" t="s">
-        <v>285</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
@@ -4264,7 +5091,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4273,38 +5100,32 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>4</v>
@@ -4313,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="X37" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Y37" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38">
@@ -4335,7 +5156,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4344,53 +5165,45 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>299</v>
-      </c>
-      <c r="X38" t="s">
-        <v>300</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39">
@@ -4406,7 +5219,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4415,43 +5228,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="K39" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O39" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>314</v>
-      </c>
-      <c r="X39" t="s">
-        <v>315</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
@@ -4467,7 +5280,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4476,53 +5289,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>323</v>
-      </c>
-      <c r="X40" t="s">
-        <v>324</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41">
@@ -4538,7 +5341,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4547,53 +5350,53 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J41" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
         <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="X41" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42">
@@ -4609,7 +5412,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4618,49 +5421,39 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>340</v>
-      </c>
-      <c r="O42" t="s">
-        <v>91</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>325</v>
+      </c>
+      <c r="X42" t="s">
+        <v>326</v>
+      </c>
       <c r="Y42" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43">
@@ -4676,7 +5469,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4685,38 +5478,34 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>278</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
         <v>3</v>
       </c>
-      <c r="N43" t="s">
-        <v>347</v>
-      </c>
-      <c r="O43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
       <c r="R43" t="n">
         <v>4</v>
       </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>4</v>
@@ -4724,14 +5513,10 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>348</v>
-      </c>
-      <c r="X43" t="s">
-        <v>349</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44">
@@ -4747,7 +5532,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4756,49 +5541,39 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="K44" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="L44" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>3</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45">
@@ -4814,7 +5589,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4823,39 +5598,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="J45" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="K45" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46">
@@ -4871,7 +5656,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4880,43 +5665,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="J46" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="K46" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>369</v>
-      </c>
-      <c r="X46" t="s">
-        <v>370</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47">
@@ -4932,7 +5717,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4941,43 +5726,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="X47" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="Y47" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48">
@@ -4993,7 +5782,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5002,41 +5791,35 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="O48" t="s">
-        <v>91</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5044,7 +5827,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49">
@@ -5060,7 +5843,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5069,53 +5852,49 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="J49" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50">
@@ -5131,7 +5910,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5140,37 +5919,37 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="O50" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
         <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
@@ -5179,14 +5958,10 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
         <v>378</v>
-      </c>
-      <c r="X50" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="51">
@@ -5202,7 +5977,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5211,37 +5986,37 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="J51" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="K51" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
         <v>4</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -5251,13 +6026,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="X51" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Y51" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52">
@@ -5273,7 +6048,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5282,39 +6057,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="J52" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="K52" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+      <c r="N52" t="s">
+        <v>392</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>378</v>
-      </c>
-      <c r="X52" t="s">
-        <v>379</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53">
@@ -5330,7 +6115,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5339,22 +6124,22 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="J53" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="K53" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="O53" t="s">
         <v>60</v>
@@ -5378,14 +6163,10 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>417</v>
-      </c>
-      <c r="X53" t="s">
-        <v>418</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54">
@@ -5401,7 +6182,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5410,28 +6191,28 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="J54" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="K54" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
         <v>4</v>
@@ -5444,19 +6225,19 @@
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="X54" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="Y54" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55">
@@ -5472,7 +6253,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5481,37 +6262,37 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="J55" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="O55" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -5521,13 +6302,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="X55" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="Y55" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56">
@@ -5543,7 +6324,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5552,49 +6333,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="J56" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="K56" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s"/>
       <c r="O56" t="s"/>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="X56" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="Y56" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57">
@@ -5610,7 +6391,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5619,53 +6400,53 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="K57" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="X57" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="Y57" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58">
@@ -5681,7 +6462,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5690,34 +6471,30 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="J58" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="K58" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" t="s">
-        <v>457</v>
-      </c>
-      <c r="O58" t="s">
-        <v>91</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
       <c r="P58" t="n">
         <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -5730,13 +6507,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="X58" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="Y58" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59">
@@ -5752,7 +6529,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5761,31 +6538,35 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="J59" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
       </c>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
       <c r="S59" t="n">
         <v>5</v>
       </c>
@@ -5797,13 +6578,13 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="X59" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="Y59" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60">
@@ -5819,7 +6600,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5828,31 +6609,35 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="J60" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="K60" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="L60" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
       <c r="S60" t="n">
         <v>5</v>
       </c>
@@ -5864,13 +6649,13 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="X60" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="Y60" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61">
@@ -5886,7 +6671,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5895,37 +6680,37 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="J61" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="K61" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="L61" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -5934,10 +6719,14 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>461</v>
+      </c>
+      <c r="X61" t="s">
+        <v>462</v>
+      </c>
       <c r="Y61" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62">
@@ -5953,7 +6742,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5962,35 +6751,53 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="J62" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="K62" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="L62" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>469</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
         <v>3</v>
       </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
-      <c r="S62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>470</v>
+      </c>
+      <c r="X62" t="s">
+        <v>471</v>
+      </c>
       <c r="Y62" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63">
@@ -6006,7 +6813,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6015,16 +6822,16 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="J63" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="K63" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
@@ -6032,12 +6839,14 @@
       <c r="N63" t="s"/>
       <c r="O63" t="s"/>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
         <v>3</v>
       </c>
-      <c r="R63" t="s"/>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
       <c r="S63" t="n">
         <v>3</v>
       </c>
@@ -6048,10 +6857,14 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>461</v>
+      </c>
+      <c r="X63" t="s">
+        <v>462</v>
+      </c>
       <c r="Y63" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64">
@@ -6067,7 +6880,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6076,43 +6889,2954 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="J64" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="K64" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="L64" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>483</v>
+      </c>
+      <c r="O64" t="s">
+        <v>102</v>
+      </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
-      </c>
-      <c r="R64" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>461</v>
+      </c>
+      <c r="X64" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>485</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>486</v>
+      </c>
+      <c r="J65" t="s">
+        <v>487</v>
+      </c>
+      <c r="K65" t="s">
+        <v>488</v>
+      </c>
+      <c r="L65" t="s">
+        <v>489</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>483</v>
+      </c>
+      <c r="O65" t="s">
+        <v>111</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>490</v>
+      </c>
+      <c r="X65" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>493</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>494</v>
+      </c>
+      <c r="J66" t="s">
+        <v>495</v>
+      </c>
+      <c r="K66" t="s">
+        <v>496</v>
+      </c>
+      <c r="L66" t="s">
+        <v>497</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>498</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
         <v>3</v>
       </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s">
-        <v>495</v>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>499</v>
+      </c>
+      <c r="X66" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>503</v>
+      </c>
+      <c r="J67" t="s">
+        <v>504</v>
+      </c>
+      <c r="K67" t="s">
+        <v>505</v>
+      </c>
+      <c r="L67" t="s">
+        <v>506</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>507</v>
+      </c>
+      <c r="X67" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>510</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>511</v>
+      </c>
+      <c r="J68" t="s">
+        <v>512</v>
+      </c>
+      <c r="K68" t="s">
+        <v>513</v>
+      </c>
+      <c r="L68" t="s">
+        <v>514</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>515</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>516</v>
+      </c>
+      <c r="X68" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>519</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>520</v>
+      </c>
+      <c r="J69" t="s">
+        <v>521</v>
+      </c>
+      <c r="K69" t="s">
+        <v>522</v>
+      </c>
+      <c r="L69" t="s">
+        <v>523</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>515</v>
+      </c>
+      <c r="O69" t="s">
+        <v>67</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>507</v>
+      </c>
+      <c r="X69" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>525</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>526</v>
+      </c>
+      <c r="J70" t="s">
+        <v>527</v>
+      </c>
+      <c r="K70" t="s">
+        <v>528</v>
+      </c>
+      <c r="L70" t="s">
+        <v>529</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>530</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>532</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>533</v>
+      </c>
+      <c r="J71" t="s">
+        <v>534</v>
+      </c>
+      <c r="K71" t="s">
+        <v>535</v>
+      </c>
+      <c r="L71" t="s">
+        <v>536</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>537</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>538</v>
+      </c>
+      <c r="X71" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>541</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>542</v>
+      </c>
+      <c r="J72" t="s">
+        <v>543</v>
+      </c>
+      <c r="K72" t="s">
+        <v>544</v>
+      </c>
+      <c r="L72" t="s">
+        <v>545</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>537</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>538</v>
+      </c>
+      <c r="X72" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>547</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>548</v>
+      </c>
+      <c r="J73" t="s">
+        <v>549</v>
+      </c>
+      <c r="K73" t="s">
+        <v>550</v>
+      </c>
+      <c r="L73" t="s">
+        <v>551</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>537</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>552</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>553</v>
+      </c>
+      <c r="J74" t="s">
+        <v>554</v>
+      </c>
+      <c r="K74" t="s">
+        <v>555</v>
+      </c>
+      <c r="L74" t="s">
+        <v>556</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>557</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>559</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>560</v>
+      </c>
+      <c r="J75" t="s">
+        <v>561</v>
+      </c>
+      <c r="K75" t="s">
+        <v>562</v>
+      </c>
+      <c r="L75" t="s">
+        <v>563</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>564</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>565</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>566</v>
+      </c>
+      <c r="J76" t="s">
+        <v>567</v>
+      </c>
+      <c r="K76" t="s">
+        <v>568</v>
+      </c>
+      <c r="L76" t="s">
+        <v>569</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>564</v>
+      </c>
+      <c r="O76" t="s">
+        <v>111</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>570</v>
+      </c>
+      <c r="X76" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>573</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>574</v>
+      </c>
+      <c r="J77" t="s">
+        <v>575</v>
+      </c>
+      <c r="K77" t="s">
+        <v>576</v>
+      </c>
+      <c r="L77" t="s">
+        <v>577</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>564</v>
+      </c>
+      <c r="O77" t="s">
+        <v>111</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>578</v>
+      </c>
+      <c r="X77" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>582</v>
+      </c>
+      <c r="J78" t="s">
+        <v>583</v>
+      </c>
+      <c r="K78" t="s">
+        <v>584</v>
+      </c>
+      <c r="L78" t="s">
+        <v>585</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>564</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>586</v>
+      </c>
+      <c r="X78" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>589</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>590</v>
+      </c>
+      <c r="J79" t="s">
+        <v>591</v>
+      </c>
+      <c r="K79" t="s">
+        <v>592</v>
+      </c>
+      <c r="L79" t="s">
+        <v>593</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>594</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>595</v>
+      </c>
+      <c r="X79" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>598</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>599</v>
+      </c>
+      <c r="J80" t="s">
+        <v>600</v>
+      </c>
+      <c r="K80" t="s">
+        <v>601</v>
+      </c>
+      <c r="L80" t="s">
+        <v>602</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>603</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>604</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>605</v>
+      </c>
+      <c r="J81" t="s">
+        <v>606</v>
+      </c>
+      <c r="K81" t="s">
+        <v>607</v>
+      </c>
+      <c r="L81" t="s">
+        <v>608</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>594</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>595</v>
+      </c>
+      <c r="X81" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>610</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>611</v>
+      </c>
+      <c r="J82" t="s">
+        <v>612</v>
+      </c>
+      <c r="K82" t="s">
+        <v>613</v>
+      </c>
+      <c r="L82" t="s">
+        <v>614</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>603</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>615</v>
+      </c>
+      <c r="X82" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>618</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>619</v>
+      </c>
+      <c r="J83" t="s">
+        <v>620</v>
+      </c>
+      <c r="K83" t="s">
+        <v>621</v>
+      </c>
+      <c r="L83" t="s">
+        <v>622</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>603</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>595</v>
+      </c>
+      <c r="X83" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>624</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>625</v>
+      </c>
+      <c r="J84" t="s">
+        <v>626</v>
+      </c>
+      <c r="K84" t="s">
+        <v>627</v>
+      </c>
+      <c r="L84" t="s">
+        <v>628</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>627</v>
+      </c>
+      <c r="O84" t="s">
+        <v>111</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>595</v>
+      </c>
+      <c r="X84" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>630</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>631</v>
+      </c>
+      <c r="J85" t="s">
+        <v>632</v>
+      </c>
+      <c r="K85" t="s">
+        <v>633</v>
+      </c>
+      <c r="L85" t="s">
+        <v>634</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>627</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>595</v>
+      </c>
+      <c r="X85" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>636</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>637</v>
+      </c>
+      <c r="J86" t="s">
+        <v>638</v>
+      </c>
+      <c r="K86" t="s">
+        <v>639</v>
+      </c>
+      <c r="L86" t="s">
+        <v>640</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>595</v>
+      </c>
+      <c r="X86" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>642</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>643</v>
+      </c>
+      <c r="J87" t="s">
+        <v>644</v>
+      </c>
+      <c r="K87" t="s">
+        <v>645</v>
+      </c>
+      <c r="L87" t="s">
+        <v>646</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>647</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>648</v>
+      </c>
+      <c r="X87" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>651</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>652</v>
+      </c>
+      <c r="J88" t="s">
+        <v>653</v>
+      </c>
+      <c r="K88" t="s">
+        <v>276</v>
+      </c>
+      <c r="L88" t="s">
+        <v>654</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>655</v>
+      </c>
+      <c r="O88" t="s">
+        <v>111</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>656</v>
+      </c>
+      <c r="X88" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>659</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>660</v>
+      </c>
+      <c r="J89" t="s">
+        <v>661</v>
+      </c>
+      <c r="K89" t="s">
+        <v>662</v>
+      </c>
+      <c r="L89" t="s">
+        <v>663</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>655</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>656</v>
+      </c>
+      <c r="X89" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>665</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>666</v>
+      </c>
+      <c r="J90" t="s">
+        <v>667</v>
+      </c>
+      <c r="K90" t="s">
+        <v>668</v>
+      </c>
+      <c r="L90" t="s">
+        <v>669</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>655</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>670</v>
+      </c>
+      <c r="X90" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>673</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>674</v>
+      </c>
+      <c r="J91" t="s">
+        <v>675</v>
+      </c>
+      <c r="K91" t="s">
+        <v>676</v>
+      </c>
+      <c r="L91" t="s">
+        <v>677</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>678</v>
+      </c>
+      <c r="O91" t="s">
+        <v>111</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>670</v>
+      </c>
+      <c r="X91" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>680</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>681</v>
+      </c>
+      <c r="J92" t="s">
+        <v>682</v>
+      </c>
+      <c r="K92" t="s">
+        <v>683</v>
+      </c>
+      <c r="L92" t="s">
+        <v>684</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>678</v>
+      </c>
+      <c r="O92" t="s">
+        <v>111</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>685</v>
+      </c>
+      <c r="X92" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>688</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>689</v>
+      </c>
+      <c r="J93" t="s">
+        <v>690</v>
+      </c>
+      <c r="K93" t="s">
+        <v>691</v>
+      </c>
+      <c r="L93" t="s">
+        <v>692</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>647</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>693</v>
+      </c>
+      <c r="X93" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>696</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>697</v>
+      </c>
+      <c r="J94" t="s">
+        <v>698</v>
+      </c>
+      <c r="K94" t="s">
+        <v>699</v>
+      </c>
+      <c r="L94" t="s">
+        <v>700</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>701</v>
+      </c>
+      <c r="X94" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>704</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>705</v>
+      </c>
+      <c r="J95" t="s">
+        <v>706</v>
+      </c>
+      <c r="K95" t="s">
+        <v>707</v>
+      </c>
+      <c r="L95" t="s">
+        <v>708</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>647</v>
+      </c>
+      <c r="O95" t="s">
+        <v>111</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>709</v>
+      </c>
+      <c r="X95" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>712</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>713</v>
+      </c>
+      <c r="J96" t="s">
+        <v>714</v>
+      </c>
+      <c r="K96" t="s">
+        <v>715</v>
+      </c>
+      <c r="L96" t="s">
+        <v>716</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>717</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>709</v>
+      </c>
+      <c r="X96" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>719</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>720</v>
+      </c>
+      <c r="J97" t="s">
+        <v>721</v>
+      </c>
+      <c r="K97" t="s">
+        <v>722</v>
+      </c>
+      <c r="L97" t="s">
+        <v>723</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>717</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>709</v>
+      </c>
+      <c r="X97" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>725</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>726</v>
+      </c>
+      <c r="J98" t="s">
+        <v>727</v>
+      </c>
+      <c r="K98" t="s">
+        <v>728</v>
+      </c>
+      <c r="L98" t="s">
+        <v>729</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>730</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>731</v>
+      </c>
+      <c r="J99" t="s">
+        <v>732</v>
+      </c>
+      <c r="K99" t="s">
+        <v>733</v>
+      </c>
+      <c r="L99" t="s">
+        <v>734</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>735</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>736</v>
+      </c>
+      <c r="X99" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>739</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>740</v>
+      </c>
+      <c r="J100" t="s">
+        <v>741</v>
+      </c>
+      <c r="K100" t="s">
+        <v>742</v>
+      </c>
+      <c r="L100" t="s">
+        <v>743</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>744</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>736</v>
+      </c>
+      <c r="X100" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>746</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>747</v>
+      </c>
+      <c r="J101" t="s">
+        <v>748</v>
+      </c>
+      <c r="K101" t="s">
+        <v>749</v>
+      </c>
+      <c r="L101" t="s">
+        <v>750</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>735</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>751</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>752</v>
+      </c>
+      <c r="J102" t="s">
+        <v>753</v>
+      </c>
+      <c r="K102" t="s">
+        <v>754</v>
+      </c>
+      <c r="L102" t="s">
+        <v>755</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>756</v>
+      </c>
+      <c r="O102" t="s">
+        <v>111</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>757</v>
+      </c>
+      <c r="X102" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>760</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>761</v>
+      </c>
+      <c r="J103" t="s">
+        <v>762</v>
+      </c>
+      <c r="K103" t="s">
+        <v>763</v>
+      </c>
+      <c r="L103" t="s">
+        <v>764</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>765</v>
+      </c>
+      <c r="O103" t="s">
+        <v>60</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>766</v>
+      </c>
+      <c r="X103" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>769</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>770</v>
+      </c>
+      <c r="J104" t="s">
+        <v>771</v>
+      </c>
+      <c r="K104" t="s">
+        <v>772</v>
+      </c>
+      <c r="L104" t="s">
+        <v>773</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>775</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>776</v>
+      </c>
+      <c r="J105" t="s">
+        <v>777</v>
+      </c>
+      <c r="K105" t="s">
+        <v>772</v>
+      </c>
+      <c r="L105" t="s">
+        <v>778</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>779</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>780</v>
+      </c>
+      <c r="J106" t="s">
+        <v>781</v>
+      </c>
+      <c r="K106" t="s">
+        <v>782</v>
+      </c>
+      <c r="L106" t="s">
+        <v>783</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>2</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>39402</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>785</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>786</v>
+      </c>
+      <c r="J107" t="s">
+        <v>787</v>
+      </c>
+      <c r="K107" t="s">
+        <v>788</v>
+      </c>
+      <c r="L107" t="s">
+        <v>789</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
